--- a/results/FinalResults.xlsx
+++ b/results/FinalResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t xml:space="preserve">Initial</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">LocalNet</t>
   </si>
   <si>
+    <t xml:space="preserve">Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUXILIARY SPACE</t>
+  </si>
+  <si>
     <t xml:space="preserve">liver</t>
   </si>
   <si>
@@ -43,21 +49,48 @@
     <t xml:space="preserve">tumor bbox</t>
   </si>
   <si>
+    <t xml:space="preserve">B-spline DSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-spline HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalNet DSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalNet HD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dice</t>
   </si>
   <si>
     <t xml:space="preserve">H.D</t>
   </si>
   <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
     <t xml:space="preserve">JaneDoe_ANON12304</t>
   </si>
   <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
     <t xml:space="preserve">JaneDoe_ANON25911</t>
   </si>
   <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
     <t xml:space="preserve">JaneDoe_ANON34438</t>
   </si>
   <si>
+    <t xml:space="preserve">STD</t>
+  </si>
+  <si>
     <t xml:space="preserve">JaneDoe_ANON47965</t>
   </si>
   <si>
@@ -256,15 +289,6 @@
     <t xml:space="preserve">JohnDoe_ANON99601</t>
   </si>
   <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Median</t>
   </si>
   <si>
@@ -272,6 +296,9 @@
   </si>
   <si>
     <t xml:space="preserve">Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`</t>
   </si>
   <si>
     <t xml:space="preserve">Q1</t>
@@ -296,10 +323,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -386,9 +414,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,11 +427,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,11 +439,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,11 +451,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,15 +484,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:AR84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA72" activeCellId="0" sqref="AA72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP2" activeCellId="0" sqref="AP2:AR6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="19.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="39" style="0" width="18.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,142 +537,224 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AK1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AK2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>0.933665445832872</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>19.6977156035922</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>0.931307815249503</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>17.4928556845359</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <f aca="false">AVERAGE(T4:T9,T11,T13:T25,T27:T28,T30:T32,T34:T39,T41:T67,T70:T72)</f>
+        <v>0.928910167880554</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <f aca="false">AVERAGE(N4:N9,N11,N13:N25,N27:N28,N30:N32,N34:N39,N41:N67,N70:N72)</f>
+        <v>0.917381167356601</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.266148556829346</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>77.614431647729</v>
+        <v>75.4850978670625</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.28915286898871</v>
@@ -638,7 +766,7 @@
         <v>0.91476817356786</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>18.7882942280559</v>
+        <v>23.1948270094864</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0.905434793474576</v>
@@ -650,7 +778,7 @@
         <v>0.933665445832872</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>14.3527000944073</v>
+        <v>19.6977156035922</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>0.910032818193894</v>
@@ -662,7 +790,7 @@
         <v>0.931307815249503</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>9.2736184954957</v>
+        <v>17.4928556845359</v>
       </c>
       <c r="X4" s="0" t="n">
         <v>0.81091171385386</v>
@@ -670,16 +798,45 @@
       <c r="Y4" s="0" t="n">
         <v>13.4536240470737</v>
       </c>
+      <c r="Z4" s="0" t="n">
+        <v>0.935656409374821</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>15.1657508881031</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>0.892093094648785</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>18.1383571472171</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>0.90306772183563</v>
+      </c>
+      <c r="AN4" s="0" t="n">
+        <v>14.560219778561</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ4" s="0" t="n">
+        <f aca="false">MIN(T4:T9,T11,T13:T25,T27:T28,T30:T32,T34:T39,T41:T67,T70:T72)</f>
+        <v>0.89425803020142</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <f aca="false">MIN(N5:N10,N12,N14:N26,N28:N29,N31:N33,N35:N40,N42:N68,N71:N73)</f>
+        <v>0.869537526228973</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.103255366973385</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>104.752088284673</v>
+        <v>98.1019877474458</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
@@ -691,7 +848,7 @@
         <v>0.857580563542559</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>27.3130005674953</v>
+        <v>28.3725219182222</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0.880507263970368</v>
@@ -703,7 +860,7 @@
         <v>0.892093094648785</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>18.411952639522</v>
+        <v>19.3390796058137</v>
       </c>
       <c r="R5" s="0" t="n">
         <v>0.722408239382894</v>
@@ -715,7 +872,7 @@
         <v>0.90306772183563</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>14.142135623731</v>
+        <v>27.495454169735</v>
       </c>
       <c r="X5" s="0" t="n">
         <v>0.638915049915238</v>
@@ -723,16 +880,42 @@
       <c r="Y5" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="Z5" s="0" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>0.91755397932191</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>16.0934769394311</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>0.920698595417353</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>22.7596133534821</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ5" s="0" t="n">
+        <f aca="false">MAX(T4:T9,T11,T13:T25,T27:T28,T30:T32,T34:T39,T41:T67,T70:T72)</f>
+        <v>0.953760968779601</v>
+      </c>
+      <c r="AR5" s="0" t="n">
+        <f aca="false">MAX(N6:N11,N13,N15:N27,N29:N30,N32:N34,N36:N41,N43:N69,N72:N74)</f>
+        <v>0.946733604493565</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.157807564981701</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120.037494142455</v>
+        <v>151.066210649503</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.00278558115132102</v>
@@ -744,7 +927,7 @@
         <v>0.888268374880475</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>28.7923600977759</v>
+        <v>26.2678510731274</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0.739855177641234</v>
@@ -756,7 +939,7 @@
         <v>0.91755397932191</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>27.2946881279124</v>
+        <v>18.1383571472171</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>0.806439888674433</v>
@@ -768,7 +951,7 @@
         <v>0.920698595417353</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>13.9283882771841</v>
+        <v>14.560219778561</v>
       </c>
       <c r="X6" s="0" t="n">
         <v>0.622067791802581</v>
@@ -776,16 +959,51 @@
       <c r="Y6" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="Z6" s="0" t="n">
+        <v>0.909483</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>31.0918</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>0.927543</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>36.6293</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>0.920458138434151</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>13.9283882771841</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>0.930489749828291</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>21.1187120819429</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(T4:T9,T11,T13:T25,T27:T28,T30:T32,T34:T39,T41:T67,T70:T72)</f>
+        <v>0.0118464378423198</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(N7:N12,N14,N16:N28,N30:N31,N33:N35,N37:N42,N44:N70,N73:N75)</f>
+        <v>0.0184309882005866</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.636375330922107</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>37.0135110466435</v>
+        <v>56.4446631666803</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.00376141859215476</v>
@@ -797,7 +1015,7 @@
         <v>0.900620095646479</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>22.3830292855994</v>
+        <v>21.7944947177034</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0.723751132167491</v>
@@ -809,7 +1027,7 @@
         <v>0.920458138434151</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>17.5499287747843</v>
+        <v>16.0934769394311</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>0.464228267711029</v>
@@ -821,7 +1039,7 @@
         <v>0.930489749828291</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>5.74456264653803</v>
+        <v>22.7596133534821</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>0.311904761904762</v>
@@ -829,16 +1047,40 @@
       <c r="W7" s="0" t="n">
         <v>5.47722557505166</v>
       </c>
+      <c r="Z7" s="0" t="n">
+        <v>0.924145227147052</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>14.3527000944073</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0.628709142943214</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>48.8057373676497</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <v>0.919171209743845</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>18.8148877222268</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <v>0.928011184399197</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>19.7484176581315</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0573992549187112</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>87.9374777896205</v>
+        <v>152.088789856452</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
@@ -850,7 +1092,7 @@
         <v>0.887591268374346</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>14.456832294801</v>
+        <v>20.4450483002609</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0.83441582314159</v>
@@ -862,7 +1104,7 @@
         <v>0.919171209743845</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>17.0293863659264</v>
+        <v>13.9283882771841</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>0.67156243698995</v>
@@ -874,7 +1116,7 @@
         <v>0.928011184399197</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>7.21110255092798</v>
+        <v>21.1187120819429</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>0.770212765957447</v>
@@ -882,16 +1124,40 @@
       <c r="Y8" s="0" t="n">
         <v>7.07106781186548</v>
       </c>
+      <c r="Z8" s="0" t="n">
+        <v>0.930282465357571</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>11.916375287813</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>0.883826281062272</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>4.69041575982343</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>0.896670148335696</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>25.0798724079689</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>0.919218815692934</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>31.559467676119</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.0124107023155153</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>102.083299319722</v>
+        <v>92.1357693840997</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
@@ -903,7 +1169,7 @@
         <v>0.895026918171444</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>12.0830459735946</v>
+        <v>23.0434372436058</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0.482466955300055</v>
@@ -915,7 +1181,7 @@
         <v>0.896670148335696</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>18.3847763108502</v>
+        <v>18.8148877222268</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>0.492129593253189</v>
@@ -927,7 +1193,7 @@
         <v>0.919218815692934</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>6.16441400296898</v>
+        <v>19.7484176581315</v>
       </c>
       <c r="X9" s="0" t="n">
         <v>0.445117933851627</v>
@@ -935,16 +1201,40 @@
       <c r="Y9" s="0" t="n">
         <v>12.8452325786651</v>
       </c>
+      <c r="Z9" s="0" t="n">
+        <v>0.905828861926837</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <v>12.1243556529821</v>
+      </c>
+      <c r="AD9" s="0" t="n">
+        <v>0.461478075585959</v>
+      </c>
+      <c r="AE9" s="0" t="n">
+        <v>18.0277563773199</v>
+      </c>
+      <c r="AK9" s="0" t="n">
+        <v>0.930014600759141</v>
+      </c>
+      <c r="AL9" s="0" t="n">
+        <v>18.4932420089069</v>
+      </c>
+      <c r="AM9" s="0" t="n">
+        <v>0.945784526391902</v>
+      </c>
+      <c r="AN9" s="0" t="n">
+        <v>12.0830459735946</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.356239703189662</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>61.0081961706786</v>
+        <v>112.129389546185</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0.171220546465576</v>
@@ -956,7 +1246,7 @@
         <v>0.847188017242101</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>26.2488094968134</v>
+        <v>25.5538646783613</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0.803072250911399</v>
@@ -968,7 +1258,7 @@
         <v>0.90317793394112</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>24.3515913237718</v>
+        <v>23.4520787991171</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0.87227045558079</v>
@@ -980,7 +1270,7 @@
         <v>0.919197840451016</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>9</v>
+        <v>22.9128784747792</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>0.763671012572916</v>
@@ -988,16 +1278,28 @@
       <c r="W10" s="0" t="n">
         <v>12.2474487139159</v>
       </c>
+      <c r="AK10" s="0" t="n">
+        <v>0.918190579392095</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>12.7279220613579</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>0.937186130356753</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>11.2249721603218</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.0297668822954857</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>108.820953864594</v>
+        <v>117.906742809731</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -1009,7 +1311,7 @@
         <v>0.926160066089687</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>18.4661853126194</v>
+        <v>29.4278779391243</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0.911280642727032</v>
@@ -1021,7 +1323,7 @@
         <v>0.930014600759141</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>17.6918060129541</v>
+        <v>25.0798724079689</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>0.8658203125</v>
@@ -1033,7 +1335,7 @@
         <v>0.945784526391902</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>7.68114574786861</v>
+        <v>31.559467676119</v>
       </c>
       <c r="X11" s="0" t="n">
         <v>0.758723571612623</v>
@@ -1041,16 +1343,34 @@
       <c r="Y11" s="0" t="n">
         <v>11.3578166916006</v>
       </c>
+      <c r="Z11" s="0" t="n">
+        <v>0.939318139652679</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>13.6381816969859</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <v>0.930027077368512</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <v>21.6794833886788</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <v>0.943287797437001</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>18.6279360101972</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.0309669812009118</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>167.014969388974</v>
+        <v>61.9112267686564</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
@@ -1062,7 +1382,7 @@
         <v>0.932313727576204</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>16.431676725155</v>
+        <v>15.3948043183407</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0.956007744733645</v>
@@ -1074,7 +1394,7 @@
         <v>0.923410045190181</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>20</v>
+        <v>19.5192212959431</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>0.944280655507748</v>
@@ -1086,7 +1406,7 @@
         <v>0.937895147055452</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>6</v>
+        <v>14.2126704035519</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>0.787136175782801</v>
@@ -1094,16 +1414,28 @@
       <c r="Y12" s="0" t="n">
         <v>33.1511689085016</v>
       </c>
+      <c r="AK12" s="0" t="n">
+        <v>0.91695095112794</v>
+      </c>
+      <c r="AL12" s="0" t="n">
+        <v>34.1467421579277</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <v>0.926886333490654</v>
+      </c>
+      <c r="AN12" s="0" t="n">
+        <v>35.0570962859162</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.104674600999976</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>94.451045520947</v>
+        <v>71.4142842854285</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
@@ -1115,7 +1447,7 @@
         <v>0.896636043789609</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>15.3622914957372</v>
+        <v>14.5945195193264</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0.650498144983117</v>
@@ -1127,7 +1459,7 @@
         <v>0.918190579392095</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>12.0415945787923</v>
+        <v>18.4932420089069</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>0.751259560268927</v>
@@ -1139,7 +1471,7 @@
         <v>0.937186130356753</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>5.8309518948453</v>
+        <v>12.0830459735946</v>
       </c>
       <c r="X13" s="0" t="n">
         <v>0.569072164948454</v>
@@ -1147,16 +1479,40 @@
       <c r="Y13" s="0" t="n">
         <v>9.48683298050514</v>
       </c>
+      <c r="Z13" s="0" t="n">
+        <v>0.929489</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>28.8119</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>0.679896</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>11.0212</v>
+      </c>
+      <c r="AK13" s="0" t="n">
+        <v>0.91540230436815</v>
+      </c>
+      <c r="AL13" s="0" t="n">
+        <v>16.1554944214035</v>
+      </c>
+      <c r="AM13" s="0" t="n">
+        <v>0.939360442890765</v>
+      </c>
+      <c r="AN13" s="0" t="n">
+        <v>14.8660687473185</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.0126147712013121</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>133.337916587893</v>
+        <v>94.5991543302582</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
@@ -1168,7 +1524,7 @@
         <v>0.922374126547442</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>16.1554944214035</v>
+        <v>14.525839046334</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0.770629837127658</v>
@@ -1180,7 +1536,7 @@
         <v>0.930027077368512</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>15.4272486205415</v>
+        <v>12.7279220613579</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>0.776193260954966</v>
@@ -1192,7 +1548,7 @@
         <v>0.943287797437001</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>9</v>
+        <v>11.2249721603218</v>
       </c>
       <c r="X14" s="0" t="n">
         <v>0.721723250424512</v>
@@ -1200,16 +1556,40 @@
       <c r="Y14" s="0" t="n">
         <v>13.4536240470737</v>
       </c>
+      <c r="Z14" s="0" t="n">
+        <v>0.942257993832799</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>15.7480157480236</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>0.79521691648896</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>96.2288937897553</v>
+      </c>
+      <c r="AK14" s="0" t="n">
+        <v>0.939249322048313</v>
+      </c>
+      <c r="AL14" s="0" t="n">
+        <v>21.9544984001001</v>
+      </c>
+      <c r="AM14" s="0" t="n">
+        <v>0.937123233156956</v>
+      </c>
+      <c r="AN14" s="0" t="n">
+        <v>21.2132034355964</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.0142703295893339</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>109.62663909835</v>
+        <v>106.681769764098</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
@@ -1221,7 +1601,7 @@
         <v>0.906818792474857</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>19</v>
+        <v>18.5472369909914</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0.823530753201885</v>
@@ -1233,7 +1613,7 @@
         <v>0.91695095112794</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>18</v>
+        <v>21.6794833886788</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>0.77074485322963</v>
@@ -1245,7 +1625,7 @@
         <v>0.926886333490654</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>7.68114574786861</v>
+        <v>18.6279360101972</v>
       </c>
       <c r="X15" s="0" t="n">
         <v>0.622021783526208</v>
@@ -1253,16 +1633,40 @@
       <c r="Y15" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="Z15" s="0" t="n">
+        <v>0.920727</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>32.554</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>0.873279</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>16.1294</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <v>0.901073395067951</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <v>19.313207915828</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <v>0.915036370526128</v>
+      </c>
+      <c r="AN15" s="0" t="n">
+        <v>16.8819430161341</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>144.727329830962</v>
+        <v>131.613069259857</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0</v>
@@ -1274,7 +1678,7 @@
         <v>0.916582653113594</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>18.0554700852678</v>
+        <v>31.4642654451046</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0.684461789738374</v>
@@ -1286,7 +1690,7 @@
         <v>0.91540230436815</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>15.1657508881031</v>
+        <v>34.1467421579277</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>0.731793227496676</v>
@@ -1298,7 +1702,7 @@
         <v>0.939360442890765</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>7.81024967590665</v>
+        <v>35.0570962859162</v>
       </c>
       <c r="X16" s="0" t="n">
         <v>0.387957948391207</v>
@@ -1306,16 +1710,40 @@
       <c r="Y16" s="0" t="n">
         <v>13.0384048104053</v>
       </c>
+      <c r="Z16" s="0" t="n">
+        <v>0.938674</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>16.8491</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>0.916927</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>2.8125</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <v>0.907692774719972</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>20.4694894904587</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <v>0.913615750954232</v>
+      </c>
+      <c r="AN16" s="0" t="n">
+        <v>17.7200451466694</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.0565752150656887</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>104.947605975553</v>
+        <v>108.120303366204</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
@@ -1327,7 +1755,7 @@
         <v>0.9136879408787</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>17.4928556845359</v>
+        <v>17.7200451466694</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0.810326842837274</v>
@@ -1339,7 +1767,7 @@
         <v>0.939249322048313</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>14.8660687473185</v>
+        <v>18.4390889145858</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>0.848815037631837</v>
@@ -1351,7 +1779,7 @@
         <v>0.937123233156956</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>7.68114574786861</v>
+        <v>15.9373774505092</v>
       </c>
       <c r="X17" s="0" t="n">
         <v>0.654572564612326</v>
@@ -1359,16 +1787,31 @@
       <c r="Y17" s="0" t="n">
         <v>13.0384048104053</v>
       </c>
+      <c r="Z17" s="0" t="n">
+        <v>0.937</v>
+      </c>
+      <c r="AK17" s="0" t="n">
+        <v>0.939765690933455</v>
+      </c>
+      <c r="AL17" s="0" t="n">
+        <v>21.9089023002066</v>
+      </c>
+      <c r="AM17" s="0" t="n">
+        <v>0.953760968779601</v>
+      </c>
+      <c r="AN17" s="0" t="n">
+        <v>24.8997991959775</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.217834813085246</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>92.2225568936364</v>
+        <v>62.2976725086901</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -1380,7 +1823,7 @@
         <v>0.875307560873421</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>19.8746069143518</v>
+        <v>33.9705755029261</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0.766329545118359</v>
@@ -1392,7 +1835,7 @@
         <v>0.901073395067951</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>19.6977156035922</v>
+        <v>19.2613602842582</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>0.840368236066085</v>
@@ -1404,7 +1847,7 @@
         <v>0.915036370526128</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>9.4339811320566</v>
+        <v>34.5398320783411</v>
       </c>
       <c r="X18" s="0" t="n">
         <v>0.596846662854342</v>
@@ -1412,16 +1855,31 @@
       <c r="Y18" s="0" t="n">
         <v>11.7473401244707</v>
       </c>
+      <c r="Z18" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <v>0.909921542396934</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>22.8910462845192</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>0.934754040381275</v>
+      </c>
+      <c r="AN18" s="0" t="n">
+        <v>18.3303027798234</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>133.240384268434</v>
+        <v>62.1449917531574</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
@@ -1433,7 +1891,7 @@
         <v>0.865108024514608</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>30.9515750810843</v>
+        <v>31.5911379978626</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>0.438291711907347</v>
@@ -1445,7 +1903,7 @@
         <v>0.907692774719972</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>26.4952825989835</v>
+        <v>24.9198715887542</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>0.465952908083955</v>
@@ -1457,7 +1915,7 @@
         <v>0.913615750954232</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>14.560219778561</v>
+        <v>24.7790233867277</v>
       </c>
       <c r="X19" s="0" t="n">
         <v>0.642613359336909</v>
@@ -1465,69 +1923,108 @@
       <c r="Y19" s="0" t="n">
         <v>9.69535971483266</v>
       </c>
+      <c r="Z19" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>0.907690024741146</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>0.918798477622007</v>
+      </c>
+      <c r="AN19" s="0" t="n">
+        <v>18.2208671582886</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.681283344230518</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>51.4295634824952</v>
-      </c>
-      <c r="D20" s="0" t="n">
+        <v>106.108435102964</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>0.636354763319226</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>42.8485705712571</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.928480504203359</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>20.5426385841741</v>
-      </c>
-      <c r="J20" s="0" t="n">
+        <v>19.3390796058137</v>
+      </c>
+      <c r="L20" s="0" t="n">
         <v>0.94789175643429</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>12.7671453348037</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>0.939765690933455</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>18.1383571472171</v>
-      </c>
-      <c r="P20" s="0" t="n">
+        <v>16.1554944214035</v>
+      </c>
+      <c r="R20" s="0" t="n">
         <v>0.957604346907589</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>12.6885775404495</v>
       </c>
       <c r="T20" s="0" t="n">
         <v>0.953760968779601</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>9.89949493661167</v>
-      </c>
-      <c r="V20" s="0" t="n">
+        <v>14.8660687473185</v>
+      </c>
+      <c r="X20" s="0" t="n">
         <v>0.923964091006384</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>7.07106781186548</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>0.93786</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>25.4818</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>0.975452</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>11.0731</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <v>0.910347518257143</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>40.6078810084939</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>0.916874441859879</v>
+      </c>
+      <c r="AN20" s="0" t="n">
+        <v>41.2189276910499</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.0109701816389844</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>126.431799797361</v>
+        <v>85.0705589496155</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>0.00310763440409851</v>
@@ -1539,7 +2036,7 @@
         <v>0.89880678330264</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>25.6709953059869</v>
+        <v>19.3907194296653</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0.882894077773553</v>
@@ -1551,7 +2048,7 @@
         <v>0.909921542396934</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>21.6101827849743</v>
+        <v>21.9544984001001</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>0.894775908579785</v>
@@ -1563,7 +2060,7 @@
         <v>0.934754040381275</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>11.3578166916006</v>
+        <v>21.2132034355964</v>
       </c>
       <c r="X21" s="0" t="n">
         <v>0.698202350772067</v>
@@ -1571,16 +2068,40 @@
       <c r="Y21" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="Z21" s="0" t="n">
+        <v>0.923784</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AD21" s="0" t="n">
+        <v>0.636289</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>0.944847</v>
+      </c>
+      <c r="AK21" s="0" t="n">
+        <v>0.93967402567973</v>
+      </c>
+      <c r="AL21" s="0" t="n">
+        <v>15.1657508881031</v>
+      </c>
+      <c r="AM21" s="0" t="n">
+        <v>0.933132120618865</v>
+      </c>
+      <c r="AN21" s="0" t="n">
+        <v>15.2970585407784</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.177789926279852</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>107.307968017291</v>
+        <v>207.737815527169</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>0</v>
@@ -1592,7 +2113,7 @@
         <v>0.890542744482752</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>19.3390796058137</v>
+        <v>18.3847763108502</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>0.783493447760602</v>
@@ -1604,7 +2125,7 @@
         <v>0.907690024741146</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>20.9045449603669</v>
+        <v>19.313207915828</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>0.791451314203579</v>
@@ -1616,7 +2137,7 @@
         <v>0.918798477622007</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>9.48683298050514</v>
+        <v>16.8819430161341</v>
       </c>
       <c r="X22" s="0" t="n">
         <v>0.629816205433612</v>
@@ -1624,16 +2145,40 @@
       <c r="Y22" s="0" t="n">
         <v>21.6333076527839</v>
       </c>
+      <c r="Z22" s="0" t="n">
+        <v>0.905611</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>37.4616</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>0.907991</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>21.8712</v>
+      </c>
+      <c r="AK22" s="0" t="n">
+        <v>0.927755971900317</v>
+      </c>
+      <c r="AL22" s="0" t="n">
+        <v>17.0293863659264</v>
+      </c>
+      <c r="AM22" s="0" t="n">
+        <v>0.939249455749695</v>
+      </c>
+      <c r="AN22" s="0" t="n">
+        <v>20.8566536146142</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.45217860647033</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>64.5677938294317</v>
+        <v>112.769676775275</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0.155576063036842</v>
@@ -1645,7 +2190,7 @@
         <v>0.893076691321966</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>34.7131099154196</v>
+        <v>17.2336879396141</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>0.852607268656517</v>
@@ -1657,7 +2202,7 @@
         <v>0.910347518257143</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>17.3493515728975</v>
+        <v>20.4694894904587</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>0.901730023072213</v>
@@ -1669,7 +2214,7 @@
         <v>0.916874441859879</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>16.583123951777</v>
+        <v>17.7200451466694</v>
       </c>
       <c r="X23" s="0" t="n">
         <v>0.687394756520101</v>
@@ -1677,16 +2222,40 @@
       <c r="Y23" s="0" t="n">
         <v>18.6010752377383</v>
       </c>
+      <c r="Z23" s="0" t="n">
+        <v>0.914625</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>29.7629</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <v>0.931526</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>45.8988</v>
+      </c>
+      <c r="AK23" s="0" t="n">
+        <v>0.93572648264066</v>
+      </c>
+      <c r="AL23" s="0" t="n">
+        <v>16.4012194668567</v>
+      </c>
+      <c r="AM23" s="0" t="n">
+        <v>0.943667530124593</v>
+      </c>
+      <c r="AN23" s="0" t="n">
+        <v>13.7477270848675</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.00446262383038543</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>121.89339604753</v>
+        <v>24.2693221990232</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>0</v>
@@ -1698,7 +2267,7 @@
         <v>0.910970044682177</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>15</v>
+        <v>135.598672559874</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>0.773240347214126</v>
@@ -1710,7 +2279,7 @@
         <v>0.93967402567973</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>19.5192212959431</v>
+        <v>21.9089023002066</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>0.804091563847063</v>
@@ -1722,7 +2291,7 @@
         <v>0.933132120618865</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>8.54400374531753</v>
+        <v>24.8997991959775</v>
       </c>
       <c r="X24" s="0" t="n">
         <v>0.614893157781135</v>
@@ -1730,16 +2299,40 @@
       <c r="Y24" s="0" t="n">
         <v>10.0498756211209</v>
       </c>
+      <c r="Z24" s="0" t="n">
+        <v>0.946053749658875</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>18.0554700852678</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <v>0.795026930241289</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>14.7986485869487</v>
+      </c>
+      <c r="AK24" s="0" t="n">
+        <v>0.890750982278067</v>
+      </c>
+      <c r="AL24" s="0" t="n">
+        <v>19.2093727122986</v>
+      </c>
+      <c r="AM24" s="0" t="n">
+        <v>0.917593531367119</v>
+      </c>
+      <c r="AN24" s="0" t="n">
+        <v>15.8113883008419</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.229054344446514</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>102.425582741813</v>
+        <v>56.2672195865408</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0.131145846927128</v>
@@ -1751,7 +2344,7 @@
         <v>0.919629175079308</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>19.4164878389476</v>
+        <v>20.4205778566621</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>0.936871151673175</v>
@@ -1763,7 +2356,7 @@
         <v>0.927755971900317</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>17</v>
+        <v>22.8910462845192</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>0.944313007043808</v>
@@ -1775,7 +2368,7 @@
         <v>0.939249455749695</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>8.83176086632785</v>
+        <v>18.3303027798234</v>
       </c>
       <c r="X25" s="0" t="n">
         <v>0.784660960439008</v>
@@ -1783,16 +2376,34 @@
       <c r="Y25" s="0" t="n">
         <v>21.6333076527839</v>
       </c>
+      <c r="Z25" s="0" t="n">
+        <v>0.93678131821555</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>15.3948043183407</v>
+      </c>
+      <c r="AK25" s="0" t="n">
+        <v>0.898100396035101</v>
+      </c>
+      <c r="AL25" s="0" t="n">
+        <v>18.1383571472171</v>
+      </c>
+      <c r="AM25" s="0" t="n">
+        <v>0.919308408512754</v>
+      </c>
+      <c r="AN25" s="0" t="n">
+        <v>28.4429253066558</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.338209542821814</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>84.2436941260294</v>
+        <v>119.920807202086</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>0.281814656502005</v>
@@ -1804,7 +2415,7 @@
         <v>0.932592585782858</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>20.0499376557634</v>
+        <v>18.2482875908947</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>0.924974615591993</v>
@@ -1816,7 +2427,7 @@
         <v>0.946733604493565</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>19.3390796058137</v>
+        <v>22</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>0.915338407987505</v>
@@ -1828,7 +2439,7 @@
         <v>0.952333346392814</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>9.4339811320566</v>
+        <v>21.2837966537928</v>
       </c>
       <c r="X26" s="0" t="n">
         <v>0.85664367132443</v>
@@ -1836,69 +2447,96 @@
       <c r="Y26" s="0" t="n">
         <v>18.4932420089069</v>
       </c>
+      <c r="AK26" s="0" t="n">
+        <v>0.946326650758029</v>
+      </c>
+      <c r="AL26" s="0" t="n">
+        <v>14.6287388383278</v>
+      </c>
+      <c r="AM26" s="0" t="n">
+        <v>0.937329718808567</v>
+      </c>
+      <c r="AN26" s="0" t="n">
+        <v>15.5884572681199</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.425517781238418</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>62.3217458035315</v>
-      </c>
-      <c r="D27" s="0" t="n">
+        <v>84.2436941260294</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>0.0222311594799808</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>57.2101389615512</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.912597310960858</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>16.583123951777</v>
-      </c>
-      <c r="J27" s="0" t="n">
+        <v>26.2678510731274</v>
+      </c>
+      <c r="L27" s="0" t="n">
         <v>0.84827966771562</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>9</v>
       </c>
       <c r="N27" s="0" t="n">
         <v>0.93572648264066</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>13.076696830622</v>
-      </c>
-      <c r="P27" s="0" t="n">
+        <v>19.1049731745428</v>
+      </c>
+      <c r="R27" s="0" t="n">
         <v>0.892146207527743</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>7.07106781186548</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>0.943667530124593</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="V27" s="0" t="n">
+        <v>19.313207915828</v>
+      </c>
+      <c r="X27" s="0" t="n">
         <v>0.808548073750962</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="AK27" s="0" t="n">
+        <v>0.924097468695459</v>
+      </c>
+      <c r="AL27" s="0" t="n">
+        <v>16.3095064303001</v>
+      </c>
+      <c r="AM27" s="0" t="n">
+        <v>0.939384248286699</v>
+      </c>
+      <c r="AN27" s="0" t="n">
+        <v>18.4661853126194</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.567903420673844</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>55.4707129934347</v>
+        <v>145.347858601357</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>0.272208747741442</v>
@@ -1910,7 +2548,7 @@
         <v>0.889718730324917</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>20.591260281974</v>
+        <v>18</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>0.76089571836684</v>
@@ -1922,7 +2560,7 @@
         <v>0.890750982278067</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>22.561028345357</v>
+        <v>15.7797338380595</v>
       </c>
       <c r="R28" s="0" t="n">
         <v>0.708538029125169</v>
@@ -1934,7 +2572,7 @@
         <v>0.917593531367119</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>10</v>
+        <v>13.9283882771841</v>
       </c>
       <c r="X28" s="0" t="n">
         <v>0.603849441261199</v>
@@ -1942,16 +2580,31 @@
       <c r="Y28" s="0" t="n">
         <v>15.1657508881031</v>
       </c>
+      <c r="Z28" s="0" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="AK28" s="0" t="n">
+        <v>0.912904729431119</v>
+      </c>
+      <c r="AL28" s="0" t="n">
+        <v>13.3416640641263</v>
+      </c>
+      <c r="AM28" s="0" t="n">
+        <v>0.912703347349415</v>
+      </c>
+      <c r="AN28" s="0" t="n">
+        <v>16.3401346383682</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>150.973507609779</v>
+        <v>62.3377895020348</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
@@ -1963,7 +2616,7 @@
         <v>0.898999242513921</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>26.7394839142419</v>
+        <v>17.058722109232</v>
       </c>
       <c r="L29" s="0" t="n">
         <v>0.830782411032749</v>
@@ -1975,7 +2628,7 @@
         <v>0.939658438785936</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>17</v>
+        <v>15.6843871413581</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>0.899199095448978</v>
@@ -1987,7 +2640,7 @@
         <v>0.933900825294605</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>11.7898261225516</v>
+        <v>15.6524758424985</v>
       </c>
       <c r="X29" s="0" t="n">
         <v>0.735738171153056</v>
@@ -1995,16 +2648,28 @@
       <c r="Y29" s="0" t="n">
         <v>11.7898261225516</v>
       </c>
+      <c r="AK29" s="0" t="n">
+        <v>0.912149319354631</v>
+      </c>
+      <c r="AL29" s="0" t="n">
+        <v>19.0262975904405</v>
+      </c>
+      <c r="AM29" s="0" t="n">
+        <v>0.936125121858178</v>
+      </c>
+      <c r="AN29" s="0" t="n">
+        <v>19.2873015219859</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.0233832898041961</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>135.550728511506</v>
+        <v>132.789306798402</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
@@ -2016,7 +2681,7 @@
         <v>0.908312495116043</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>23.3452350598575</v>
+        <v>14.3178210632764</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>0.449811498586239</v>
@@ -2028,7 +2693,7 @@
         <v>0.898100396035101</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>22.113344387496</v>
+        <v>14.4913767461894</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>0.273522975929978</v>
@@ -2040,7 +2705,7 @@
         <v>0.919308408512754</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>11.916375287813</v>
+        <v>16.583123951777</v>
       </c>
       <c r="X30" s="0" t="n">
         <v>0.182425659873037</v>
@@ -2048,16 +2713,31 @@
       <c r="Y30" s="0" t="n">
         <v>8.30662386291808</v>
       </c>
+      <c r="Z30" s="0" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="AK30" s="0" t="n">
+        <v>0.9137191558838</v>
+      </c>
+      <c r="AL30" s="0" t="n">
+        <v>20.6397674405503</v>
+      </c>
+      <c r="AM30" s="0" t="n">
+        <v>0.936222269526861</v>
+      </c>
+      <c r="AN30" s="0" t="n">
+        <v>28.6530975637888</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.283766654731055</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>106.343782140753</v>
+        <v>70.7813534767456</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
@@ -2069,7 +2749,7 @@
         <v>0.894132914993614</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>18.4932420089069</v>
+        <v>24.8797106092495</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>0.81932794404602</v>
@@ -2081,7 +2761,7 @@
         <v>0.946326650758029</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>16.0312195418814</v>
+        <v>15</v>
       </c>
       <c r="R31" s="0" t="n">
         <v>0.741339179212741</v>
@@ -2093,7 +2773,7 @@
         <v>0.937329718808567</v>
       </c>
       <c r="U31" s="0" t="n">
-        <v>6.70820393249937</v>
+        <v>18.2208671582886</v>
       </c>
       <c r="X31" s="0" t="n">
         <v>0.578001854427446</v>
@@ -2101,16 +2781,40 @@
       <c r="Y31" s="0" t="n">
         <v>9.9498743710662</v>
       </c>
+      <c r="Z31" s="0" t="n">
+        <v>0.936953</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>32.3324</v>
+      </c>
+      <c r="AD31" s="0" t="n">
+        <v>0.9158705</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>4.505845</v>
+      </c>
+      <c r="AK31" s="0" t="n">
+        <v>0.910291545663319</v>
+      </c>
+      <c r="AL31" s="0" t="n">
+        <v>33.3016516106934</v>
+      </c>
+      <c r="AM31" s="0" t="n">
+        <v>0.93022232538425</v>
+      </c>
+      <c r="AN31" s="0" t="n">
+        <v>27.6767050061961</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.149268258451093</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>131.244047484067</v>
+        <v>45.7602447545902</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>0.135480836502119</v>
@@ -2122,7 +2826,7 @@
         <v>0.890983337137724</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>28.6530975637888</v>
+        <v>43.1508980207828</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>0.880500959364364</v>
@@ -2134,7 +2838,7 @@
         <v>0.924097468695459</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>21.7944947177034</v>
+        <v>40.6078810084939</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>0.908574445990394</v>
@@ -2146,7 +2850,7 @@
         <v>0.939384248286699</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>13.0384048104053</v>
+        <v>41.2189276910499</v>
       </c>
       <c r="X32" s="0" t="n">
         <v>0.774589638106261</v>
@@ -2154,16 +2858,40 @@
       <c r="Y32" s="0" t="n">
         <v>24.0831891575846</v>
       </c>
+      <c r="Z32" s="0" t="n">
+        <v>0.92499</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>51.583</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <v>0.982299</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>27.9949</v>
+      </c>
+      <c r="AK32" s="0" t="n">
+        <v>0.941355759697806</v>
+      </c>
+      <c r="AL32" s="0" t="n">
+        <v>20.0499376557634</v>
+      </c>
+      <c r="AM32" s="0" t="n">
+        <v>0.941947389480082</v>
+      </c>
+      <c r="AN32" s="0" t="n">
+        <v>19.723082923316</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.357772117446522</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>84.0059521700695</v>
+        <v>87.914731416299</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0.00114736152235993</v>
@@ -2175,7 +2903,7 @@
         <v>0.898331595516614</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>25.3179778023443</v>
+        <v>28.49561369755</v>
       </c>
       <c r="L33" s="0" t="n">
         <v>0.854641794537492</v>
@@ -2187,7 +2915,7 @@
         <v>0.914315560772071</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>18.4661853126194</v>
+        <v>26.4952825989835</v>
       </c>
       <c r="R33" s="0" t="n">
         <v>0.837658512694252</v>
@@ -2199,7 +2927,7 @@
         <v>0.92845129415326</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>11.0905365064094</v>
+        <v>22.4499443206436</v>
       </c>
       <c r="X33" s="0" t="n">
         <v>0.655415915316531</v>
@@ -2207,16 +2935,28 @@
       <c r="Y33" s="0" t="n">
         <v>24.1867732448957</v>
       </c>
+      <c r="AK33" s="0" t="n">
+        <v>0.90705188428954</v>
+      </c>
+      <c r="AL33" s="0" t="n">
+        <v>13.4536240470737</v>
+      </c>
+      <c r="AM33" s="0" t="n">
+        <v>0.944133564164781</v>
+      </c>
+      <c r="AN33" s="0" t="n">
+        <v>14.456832294801</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.00927782223616268</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>113.745329574449</v>
+        <v>75.17978451685</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>0</v>
@@ -2228,7 +2968,7 @@
         <v>0.86125146941612</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>20.0748598998847</v>
+        <v>15.2643375224738</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>0.786860098697901</v>
@@ -2240,7 +2980,7 @@
         <v>0.912904729431119</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>19.2093727122986</v>
+        <v>15.1657508881031</v>
       </c>
       <c r="R34" s="0" t="n">
         <v>0.847784920007353</v>
@@ -2252,7 +2992,7 @@
         <v>0.912703347349415</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>8.71779788708135</v>
+        <v>15.2970585407784</v>
       </c>
       <c r="X34" s="0" t="n">
         <v>0.610440663056327</v>
@@ -2260,16 +3000,34 @@
       <c r="Y34" s="0" t="n">
         <v>15.8429795177549</v>
       </c>
+      <c r="Z34" s="0" t="n">
+        <v>0.855851948180887</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>22.9346898823594</v>
+      </c>
+      <c r="AK34" s="0" t="n">
+        <v>0.916449522043583</v>
+      </c>
+      <c r="AL34" s="0" t="n">
+        <v>15.4272486205415</v>
+      </c>
+      <c r="AM34" s="0" t="n">
+        <v>0.93194947345145</v>
+      </c>
+      <c r="AN34" s="0" t="n">
+        <v>15.5884572681199</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.346490359163313</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>70.3206939669967</v>
+        <v>79.3347338811948</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>0.20920947830171</v>
@@ -2281,7 +3039,7 @@
         <v>0.903186200759455</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>25</v>
+        <v>16.583123951777</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>0.85474002606806</v>
@@ -2293,7 +3051,7 @@
         <v>0.912149319354631</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>19.5192212959431</v>
+        <v>17.0293863659264</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>0.86674857973161</v>
@@ -2305,7 +3063,7 @@
         <v>0.936125121858178</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>12.2474487139159</v>
+        <v>20.8566536146142</v>
       </c>
       <c r="X35" s="0" t="n">
         <v>0.796865455953995</v>
@@ -2313,16 +3071,40 @@
       <c r="Y35" s="0" t="n">
         <v>11.180339887499</v>
       </c>
+      <c r="Z35" s="0" t="n">
+        <v>0.925914</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>24.6982</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <v>0.850606</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>28.6972</v>
+      </c>
+      <c r="AK35" s="0" t="n">
+        <v>0.912034267354605</v>
+      </c>
+      <c r="AL35" s="0" t="n">
+        <v>12.8062484748657</v>
+      </c>
+      <c r="AM35" s="0" t="n">
+        <v>0.926941449134421</v>
+      </c>
+      <c r="AN35" s="0" t="n">
+        <v>15.7797338380595</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1.04848436342845E-005</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>133.895481626528</v>
+        <v>57.0350769263968</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0</v>
@@ -2334,7 +3116,7 @@
         <v>0.923281623716211</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>10.4880884817015</v>
+        <v>17.6918060129541</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0.803703068235224</v>
@@ -2346,7 +3128,7 @@
         <v>0.9137191558838</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>13.5646599662505</v>
+        <v>17.7482393492988</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>0.76403452187982</v>
@@ -2358,7 +3140,7 @@
         <v>0.936222269526861</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>5.47722557505166</v>
+        <v>15.9373774505092</v>
       </c>
       <c r="V36" s="0" t="n">
         <v>0.859633449050439</v>
@@ -2366,16 +3148,31 @@
       <c r="W36" s="0" t="n">
         <v>8.12403840463596</v>
       </c>
+      <c r="Z36" s="0" t="n">
+        <v>0.934</v>
+      </c>
+      <c r="AK36" s="0" t="n">
+        <v>0.911027863030029</v>
+      </c>
+      <c r="AL36" s="0" t="n">
+        <v>22.6715680975093</v>
+      </c>
+      <c r="AM36" s="0" t="n">
+        <v>0.9271890383366</v>
+      </c>
+      <c r="AN36" s="0" t="n">
+        <v>13.6381816969859</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.144188158474021</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>115.160757204874</v>
+        <v>88.3798619596116</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>0</v>
@@ -2387,7 +3184,7 @@
         <v>0.910208264178057</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>14.9666295470958</v>
+        <v>12.5698050899765</v>
       </c>
       <c r="L37" s="0" t="n">
         <v>0.802651954905253</v>
@@ -2399,7 +3196,7 @@
         <v>0.910291545663319</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>24.2693221990232</v>
+        <v>16.4012194668567</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>0.750465482925159</v>
@@ -2411,7 +3208,7 @@
         <v>0.93022232538425</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>5.65685424949238</v>
+        <v>13.7477270848675</v>
       </c>
       <c r="V37" s="0" t="n">
         <v>0.725614665262897</v>
@@ -2419,16 +3216,40 @@
       <c r="W37" s="0" t="n">
         <v>11.0905365064094</v>
       </c>
+      <c r="Z37" s="0" t="n">
+        <v>0.93421359851777</v>
+      </c>
+      <c r="AA37" s="0" t="n">
+        <v>9.2736184954957</v>
+      </c>
+      <c r="AD37" s="0" t="n">
+        <v>0.821123595505618</v>
+      </c>
+      <c r="AE37" s="0" t="n">
+        <v>9.53939201416946</v>
+      </c>
+      <c r="AK37" s="0" t="n">
+        <v>0.930111249797355</v>
+      </c>
+      <c r="AL37" s="0" t="n">
+        <v>15.0665191733194</v>
+      </c>
+      <c r="AM37" s="0" t="n">
+        <v>0.934591921955936</v>
+      </c>
+      <c r="AN37" s="0" t="n">
+        <v>14.8660687473185</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.175428643332733</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>96.1301201497221</v>
+        <v>120.469913256381</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>0</v>
@@ -2440,7 +3261,7 @@
         <v>0.911098424692061</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>14.525839046334</v>
+        <v>14.8660687473185</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>0.769759826959785</v>
@@ -2452,7 +3273,7 @@
         <v>0.941355759697806</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>11.4891252930761</v>
+        <v>19.2093727122986</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>0.843060417160575</v>
@@ -2464,7 +3285,7 @@
         <v>0.941947389480082</v>
       </c>
       <c r="U38" s="0" t="n">
-        <v>8.06225774829855</v>
+        <v>15.8113883008419</v>
       </c>
       <c r="V38" s="0" t="n">
         <v>0.766928482844151</v>
@@ -2472,34 +3293,58 @@
       <c r="W38" s="0" t="n">
         <v>9.2736184954957</v>
       </c>
+      <c r="Z38" s="0" t="n">
+        <v>0.937619</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <v>35.5605</v>
+      </c>
+      <c r="AD38" s="0" t="n">
+        <v>0.971894</v>
+      </c>
+      <c r="AE38" s="0" t="n">
+        <v>3.64435</v>
+      </c>
+      <c r="AK38" s="0" t="n">
+        <v>0.923157451741268</v>
+      </c>
+      <c r="AL38" s="0" t="n">
+        <v>26.5518360947035</v>
+      </c>
+      <c r="AM38" s="0" t="n">
+        <v>0.933617028922576</v>
+      </c>
+      <c r="AN38" s="0" t="n">
+        <v>27.8747197295327</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.4314516757099</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>87.3670418407308</v>
+        <v>105.033328044007</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>0.925610509022035</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>15.3948043183407</v>
+        <v>28.4604989415154</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>0.90705188428954</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>14.8996644257513</v>
+        <v>18.1383571472171</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>0.944133564164781</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>7.07106781186548</v>
+        <v>28.4429253066558</v>
       </c>
       <c r="V39" s="0" t="n">
         <v>0</v>
@@ -2507,16 +3352,34 @@
       <c r="W39" s="0" t="n">
         <v>79.328431221095</v>
       </c>
+      <c r="Z39" s="0" t="n">
+        <v>0.914453</v>
+      </c>
+      <c r="AA39" s="0" t="n">
+        <v>28.8166</v>
+      </c>
+      <c r="AK39" s="0" t="n">
+        <v>0.888773026811933</v>
+      </c>
+      <c r="AL39" s="0" t="n">
+        <v>14.3178210632764</v>
+      </c>
+      <c r="AM39" s="0" t="n">
+        <v>0.926172591570185</v>
+      </c>
+      <c r="AN39" s="0" t="n">
+        <v>13.6014705087354</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.183119659678796</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>89.1403387922662</v>
+        <v>100.279609093773</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>0.182651168686624</v>
@@ -2528,7 +3391,7 @@
         <v>0.890234697485166</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>31.04834939252</v>
+        <v>18.3847763108502</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>0.817338933063001</v>
@@ -2540,7 +3403,7 @@
         <v>0.869537526228973</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>33.0756708170824</v>
+        <v>17.1464281994823</v>
       </c>
       <c r="R40" s="0" t="n">
         <v>0.793427186250246</v>
@@ -2552,7 +3415,7 @@
         <v>0.898255925241959</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>16.3707055437449</v>
+        <v>19.2613602842582</v>
       </c>
       <c r="X40" s="0" t="n">
         <v>0.697969322845841</v>
@@ -2560,16 +3423,28 @@
       <c r="Y40" s="0" t="n">
         <v>26.1151297144012</v>
       </c>
+      <c r="AK40" s="0" t="n">
+        <v>0.884473790769948</v>
+      </c>
+      <c r="AL40" s="0" t="n">
+        <v>27.8567765543682</v>
+      </c>
+      <c r="AM40" s="0" t="n">
+        <v>0.928540785683643</v>
+      </c>
+      <c r="AN40" s="0" t="n">
+        <v>29.6310647800581</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.342517102791411</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>75.7693869580585</v>
+        <v>168.647561500308</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0.223128049928322</v>
@@ -2587,7 +3462,7 @@
         <v>0.892521224700243</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>23.685438564654</v>
+        <v>16.9115345252878</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>0.412235002183918</v>
@@ -2599,7 +3474,7 @@
         <v>0.916449522043583</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>19.0262975904405</v>
+        <v>18.9736659610103</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>0.381593001373277</v>
@@ -2611,7 +3486,7 @@
         <v>0.93194947345145</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>10.4880884817015</v>
+        <v>14.3527000944073</v>
       </c>
       <c r="X41" s="0" t="n">
         <v>0.351564813900681</v>
@@ -2619,16 +3494,31 @@
       <c r="Y41" s="0" t="n">
         <v>14.7648230602334</v>
       </c>
+      <c r="Z41" s="0" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="AK41" s="0" t="n">
+        <v>0.887824010873459</v>
+      </c>
+      <c r="AL41" s="0" t="n">
+        <v>51.0489960724009</v>
+      </c>
+      <c r="AM41" s="0" t="n">
+        <v>0.911962216810567</v>
+      </c>
+      <c r="AN41" s="0" t="n">
+        <v>57.8791845139511</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.552167423291218</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>57.3236425918661</v>
+        <v>72.5327512231544</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0.256812064349842</v>
@@ -2640,7 +3530,7 @@
         <v>0.883132081304071</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>21.2132034355964</v>
+        <v>29.9499582637439</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0.775744028105187</v>
@@ -2652,7 +3542,7 @@
         <v>0.912034267354605</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>14.4913767461894</v>
+        <v>29</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>0.753814383675517</v>
@@ -2664,7 +3554,7 @@
         <v>0.926941449134421</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>9.1104335791443</v>
+        <v>31.5277655408689</v>
       </c>
       <c r="V42" s="0" t="n">
         <v>0.761391963306411</v>
@@ -2672,16 +3562,31 @@
       <c r="W42" s="0" t="n">
         <v>13.6014705087354</v>
       </c>
+      <c r="Z42" s="0" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="AK42" s="0" t="n">
+        <v>0.913327415080321</v>
+      </c>
+      <c r="AL42" s="0" t="n">
+        <v>21.7944947177034</v>
+      </c>
+      <c r="AM42" s="0" t="n">
+        <v>0.917039766541477</v>
+      </c>
+      <c r="AN42" s="0" t="n">
+        <v>28.2488937836511</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.387671729569927</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>113.639781766774</v>
+        <v>50.1298314379771</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>1.79417896576348E-006</v>
@@ -2693,7 +3598,7 @@
         <v>0.918146116902219</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>27.4772633280682</v>
+        <v>21.6101827849743</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0.893250062448346</v>
@@ -2705,7 +3610,7 @@
         <v>0.911027863030029</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>25.1594912508182</v>
+        <v>20.3960780543711</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0.876796053280904</v>
@@ -2717,7 +3622,7 @@
         <v>0.9271890383366</v>
       </c>
       <c r="U43" s="0" t="n">
-        <v>12.7279220613579</v>
+        <v>16.6733320005331</v>
       </c>
       <c r="V43" s="0" t="n">
         <v>0.811538645532682</v>
@@ -2725,16 +3630,31 @@
       <c r="W43" s="0" t="n">
         <v>32.3882694814033</v>
       </c>
+      <c r="Z43" s="0" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="AK43" s="0" t="n">
+        <v>0.910898238228441</v>
+      </c>
+      <c r="AL43" s="0" t="n">
+        <v>14.525839046334</v>
+      </c>
+      <c r="AM43" s="0" t="n">
+        <v>0.927877739963226</v>
+      </c>
+      <c r="AN43" s="0" t="n">
+        <v>15.2970585407784</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.177931489327684</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>106.611444038621</v>
+        <v>145.694886663877</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0</v>
@@ -2746,7 +3666,7 @@
         <v>0.906254988436201</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>23.8746727726266</v>
+        <v>17.2336879396141</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0.769115565839181</v>
@@ -2758,7 +3678,7 @@
         <v>0.930111249797355</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>28.0356915377524</v>
+        <v>14.6287388383278</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0.795067373040829</v>
@@ -2770,7 +3690,7 @@
         <v>0.934591921955936</v>
       </c>
       <c r="U44" s="0" t="n">
-        <v>12</v>
+        <v>15.5884572681199</v>
       </c>
       <c r="V44" s="0" t="n">
         <v>0.712505887438625</v>
@@ -2778,22 +3698,40 @@
       <c r="W44" s="0" t="n">
         <v>17.1172427686237</v>
       </c>
+      <c r="Z44" s="0" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <v>29.9565</v>
+      </c>
+      <c r="AK44" s="0" t="n">
+        <v>0.884545281027024</v>
+      </c>
+      <c r="AL44" s="0" t="n">
+        <v>24.5153013442625</v>
+      </c>
+      <c r="AM44" s="0" t="n">
+        <v>0.89425803020142</v>
+      </c>
+      <c r="AN44" s="0" t="n">
+        <v>28.2488937836511</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.105003698967253</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>147.244694301696</v>
+        <v>113.688170009021</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0.909033125478373</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>63.285069329187</v>
+        <v>26.2488094968134</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0.813600623115315</v>
@@ -2805,7 +3743,7 @@
         <v>0.923157451741268</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>59.8414572015087</v>
+        <v>26.0768096208106</v>
       </c>
       <c r="P45" s="0" t="n">
         <v>0.859228524451867</v>
@@ -2817,7 +3755,7 @@
         <v>0.933617028922576</v>
       </c>
       <c r="U45" s="0" t="n">
-        <v>28.6006992921502</v>
+        <v>23.3666428910958</v>
       </c>
       <c r="V45" s="0" t="n">
         <v>0.666538498510045</v>
@@ -2825,16 +3763,31 @@
       <c r="W45" s="0" t="n">
         <v>8.60232526704263</v>
       </c>
+      <c r="Z45" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AK45" s="0" t="n">
+        <v>0.90151500133167</v>
+      </c>
+      <c r="AL45" s="0" t="n">
+        <v>16.5227116418583</v>
+      </c>
+      <c r="AM45" s="0" t="n">
+        <v>0.920230690024229</v>
+      </c>
+      <c r="AN45" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.548360881352972</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>57.7840808527747</v>
+        <v>15.8113883008419</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0.091258870017235</v>
@@ -2846,7 +3799,7 @@
         <v>0.905807921227926</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>30.4795013082563</v>
+        <v>107.879562475939</v>
       </c>
       <c r="L46" s="0" t="n">
         <v>0.484519835592797</v>
@@ -2858,7 +3811,7 @@
         <v>0.888773026811933</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>25.6320112359526</v>
+        <v>16.3095064303001</v>
       </c>
       <c r="R46" s="0" t="n">
         <v>0.456039162633202</v>
@@ -2870,7 +3823,7 @@
         <v>0.926172591570185</v>
       </c>
       <c r="U46" s="0" t="n">
-        <v>14</v>
+        <v>18.4661853126194</v>
       </c>
       <c r="X46" s="0" t="n">
         <v>0.400820862921987</v>
@@ -2878,16 +3831,34 @@
       <c r="Y46" s="0" t="n">
         <v>29.6816441593117</v>
       </c>
+      <c r="Z46" s="0" t="n">
+        <v>0.917325292333212</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <v>27.495454169735</v>
+      </c>
+      <c r="AK46" s="0" t="n">
+        <v>0.910031210827438</v>
+      </c>
+      <c r="AL46" s="0" t="n">
+        <v>22.0907220343745</v>
+      </c>
+      <c r="AM46" s="0" t="n">
+        <v>0.93331235019248</v>
+      </c>
+      <c r="AN46" s="0" t="n">
+        <v>22.0454076850486</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.482010955074342</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>86.1974477580398</v>
+        <v>103.198837202752</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0.00449769299367997</v>
@@ -2899,7 +3870,7 @@
         <v>0.894206832736643</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>19.1049731745428</v>
+        <v>13.7477270848675</v>
       </c>
       <c r="L47" s="0" t="n">
         <v>0.428788536691272</v>
@@ -2911,7 +3882,7 @@
         <v>0.884473790769948</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>20.2731349327133</v>
+        <v>13.3416640641263</v>
       </c>
       <c r="R47" s="0" t="n">
         <v>0.58543078908026</v>
@@ -2923,7 +3894,7 @@
         <v>0.928540785683643</v>
       </c>
       <c r="U47" s="0" t="n">
-        <v>7.07106781186548</v>
+        <v>16.3401346383682</v>
       </c>
       <c r="X47" s="0" t="n">
         <v>0.322503827181493</v>
@@ -2931,16 +3902,34 @@
       <c r="Y47" s="0" t="n">
         <v>7.21110255092798</v>
       </c>
+      <c r="Z47" s="0" t="n">
+        <v>0.889976684568897</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <v>26.8700576850888</v>
+      </c>
+      <c r="AK47" s="0" t="n">
+        <v>0.923176716549795</v>
+      </c>
+      <c r="AL47" s="0" t="n">
+        <v>23.7486841740758</v>
+      </c>
+      <c r="AM47" s="0" t="n">
+        <v>0.945553394765707</v>
+      </c>
+      <c r="AN47" s="0" t="n">
+        <v>21.9544984001001</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.13224218557716</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>92.4932429964481</v>
+        <v>109.535382411347</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>0.00257254088910824</v>
@@ -2952,7 +3941,7 @@
         <v>0.872743508337897</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>23.0217288664427</v>
+        <v>17.3205080756888</v>
       </c>
       <c r="L48" s="0" t="n">
         <v>0.903186927801599</v>
@@ -2964,7 +3953,7 @@
         <v>0.887824010873459</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>19.2353840616713</v>
+        <v>13.9283882771841</v>
       </c>
       <c r="R48" s="0" t="n">
         <v>0.899653392370302</v>
@@ -2976,7 +3965,7 @@
         <v>0.911962216810567</v>
       </c>
       <c r="U48" s="0" t="n">
-        <v>11.0453610171873</v>
+        <v>13.3790881602597</v>
       </c>
       <c r="X48" s="0" t="n">
         <v>0.700081017075907</v>
@@ -2984,16 +3973,25 @@
       <c r="Y48" s="0" t="n">
         <v>11.8321595661992</v>
       </c>
+      <c r="Z48" s="0" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="AK48" s="0" t="n">
+        <v>0.930011917403583</v>
+      </c>
+      <c r="AM48" s="0" t="n">
+        <v>0.931580738917546</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>146.700374914313</v>
+        <v>103.450471241073</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0</v>
@@ -3011,7 +4009,7 @@
         <v>0.90023273946175</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>13</v>
+        <v>19.8494332412792</v>
       </c>
       <c r="L49" s="0" t="n">
         <v>0.923580965110804</v>
@@ -3023,7 +4021,7 @@
         <v>0.913327415080321</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>12.0830459735946</v>
+        <v>19.0262975904405</v>
       </c>
       <c r="R49" s="0" t="n">
         <v>0.897790697495385</v>
@@ -3035,7 +4033,7 @@
         <v>0.917039766541477</v>
       </c>
       <c r="U49" s="0" t="n">
-        <v>7.21110255092798</v>
+        <v>19.2873015219859</v>
       </c>
       <c r="X49" s="0" t="n">
         <v>0.773576932637335</v>
@@ -3043,63 +4041,105 @@
       <c r="Y49" s="0" t="n">
         <v>14.1774468787578</v>
       </c>
+      <c r="Z49" s="0" t="n">
+        <v>0.929768</v>
+      </c>
+      <c r="AA49" s="0" t="n">
+        <v>20.5469</v>
+      </c>
+      <c r="AD49" s="0" t="n">
+        <v>0.940843</v>
+      </c>
+      <c r="AE49" s="0" t="n">
+        <v>7.83472</v>
+      </c>
+      <c r="AK49" s="0" t="n">
+        <v>0.923831058176306</v>
+      </c>
+      <c r="AM49" s="0" t="n">
+        <v>0.929954087739132</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.184026456749132</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>95.6765383989199</v>
+        <v>131.521861300698</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>107.902733978338</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0.877686706345571</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>26.7020598456374</v>
-      </c>
-      <c r="J50" s="0" t="n">
+        <v>29.5465734053883</v>
+      </c>
+      <c r="L50" s="0" t="n">
         <v>0.628896770580549</v>
       </c>
-      <c r="K50" s="0" t="n">
+      <c r="M50" s="0" t="n">
         <v>43.7492857084547</v>
       </c>
       <c r="N50" s="0" t="n">
         <v>0.910898238228441</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>19.1049731745428</v>
-      </c>
-      <c r="P50" s="0" t="n">
+        <v>20.6397674405503</v>
+      </c>
+      <c r="R50" s="0" t="n">
         <v>0.708380803576272</v>
       </c>
-      <c r="Q50" s="0" t="n">
+      <c r="S50" s="0" t="n">
         <v>36.4142829120662</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>0.927877739963226</v>
       </c>
       <c r="U50" s="0" t="n">
-        <v>13.0384048104053</v>
-      </c>
-      <c r="V50" s="0" t="n">
+        <v>28.6530975637888</v>
+      </c>
+      <c r="X50" s="0" t="n">
         <v>0.777439458182749</v>
       </c>
-      <c r="W50" s="0" t="n">
+      <c r="Y50" s="0" t="n">
         <v>7.68114574786861</v>
+      </c>
+      <c r="Z50" s="0" t="n">
+        <v>0.920087797840351</v>
+      </c>
+      <c r="AA50" s="0" t="n">
+        <v>16.5529453572468</v>
+      </c>
+      <c r="AD50" s="0" t="n">
+        <v>0.677457217431384</v>
+      </c>
+      <c r="AE50" s="0" t="n">
+        <v>32.2024843762092</v>
+      </c>
+      <c r="AK50" s="0" t="n">
+        <v>0.938965903985076</v>
+      </c>
+      <c r="AM50" s="0" t="n">
+        <v>0.925781423391349</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.0364112917935009</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>96.8607247546703</v>
+        <v>105.815877825589</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>0</v>
@@ -3111,7 +4151,7 @@
         <v>0.878783780079329</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>20.6155281280883</v>
+        <v>29.1547594742265</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>0.746729967555052</v>
@@ -3123,7 +4163,7 @@
         <v>0.884545281027024</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>23.4093998214392</v>
+        <v>33.3016516106934</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>0.736522890616313</v>
@@ -3135,7 +4175,7 @@
         <v>0.89425803020142</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>10.6301458127347</v>
+        <v>27.6767050061961</v>
       </c>
       <c r="X51" s="0" t="n">
         <v>0.648090277777778</v>
@@ -3143,16 +4183,34 @@
       <c r="Y51" s="0" t="n">
         <v>19.2873015219859</v>
       </c>
+      <c r="Z51" s="0" t="n">
+        <v>0.88281</v>
+      </c>
+      <c r="AA51" s="0" t="n">
+        <v>22.2329</v>
+      </c>
+      <c r="AD51" s="0" t="n">
+        <v>0.951295</v>
+      </c>
+      <c r="AE51" s="0" t="n">
+        <v>4.89619</v>
+      </c>
+      <c r="AK51" s="0" t="n">
+        <v>0.932510317672745</v>
+      </c>
+      <c r="AM51" s="0" t="n">
+        <v>0.929277271846541</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.160210641749103</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>108.604788108076</v>
+        <v>92.1628992599517</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>0</v>
@@ -3164,7 +4222,7 @@
         <v>0.903562962823635</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>31.4483703870328</v>
+        <v>20.712315177208</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>0.787997339116715</v>
@@ -3176,7 +4234,7 @@
         <v>0.90151500133167</v>
       </c>
       <c r="O52" s="0" t="n">
-        <v>28.3372546306095</v>
+        <v>25.0199920063936</v>
       </c>
       <c r="R52" s="0" t="n">
         <v>0.784924644764145</v>
@@ -3188,7 +4246,7 @@
         <v>0.920230690024229</v>
       </c>
       <c r="U52" s="0" t="n">
-        <v>15.52417469626</v>
+        <v>23.6008474424119</v>
       </c>
       <c r="X52" s="0" t="n">
         <v>0.629440264894213</v>
@@ -3196,16 +4254,25 @@
       <c r="Y52" s="0" t="n">
         <v>20.4939015319192</v>
       </c>
+      <c r="Z52" s="0" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="AK52" s="0" t="n">
+        <v>0.903277101790584</v>
+      </c>
+      <c r="AM52" s="0" t="n">
+        <v>0.924829220430605</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0.0167793762259721</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>149.147577922003</v>
+        <v>81.8779579618349</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>0</v>
@@ -3217,7 +4284,7 @@
         <v>0.887688518968796</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>15.4272486205415</v>
+        <v>20.5426385841741</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>0.354510240085909</v>
@@ -3229,7 +4296,7 @@
         <v>0.910031210827438</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>13.9283882771841</v>
+        <v>19.5192212959431</v>
       </c>
       <c r="R53" s="0" t="n">
         <v>0.312572381980567</v>
@@ -3241,7 +4308,7 @@
         <v>0.93331235019248</v>
       </c>
       <c r="U53" s="0" t="n">
-        <v>8</v>
+        <v>15.3948043183407</v>
       </c>
       <c r="X53" s="0" t="n">
         <v>0.289192244152682</v>
@@ -3249,16 +4316,25 @@
       <c r="Y53" s="0" t="n">
         <v>43.1161222746202</v>
       </c>
+      <c r="Z53" s="0" t="n">
+        <v>0.934</v>
+      </c>
+      <c r="AK53" s="0" t="n">
+        <v>0.929368934730771</v>
+      </c>
+      <c r="AM53" s="0" t="n">
+        <v>0.931820906124442</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0.302045844224313</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>72.4016574395918</v>
+        <v>93.0430008114528</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>0.034378206517812</v>
@@ -3270,7 +4346,7 @@
         <v>0.91878576959293</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>14.7648230602334</v>
+        <v>21.9317121994613</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>0.785905310941727</v>
@@ -3282,7 +4358,7 @@
         <v>0.923176716549795</v>
       </c>
       <c r="O54" s="0" t="n">
-        <v>15.6204993518133</v>
+        <v>20.0499376557634</v>
       </c>
       <c r="R54" s="0" t="n">
         <v>0.80846198166067</v>
@@ -3294,7 +4370,7 @@
         <v>0.945553394765707</v>
       </c>
       <c r="U54" s="0" t="n">
-        <v>6.6332495807108</v>
+        <v>19.723082923316</v>
       </c>
       <c r="X54" s="0" t="n">
         <v>0.633548286442353</v>
@@ -3302,16 +4378,28 @@
       <c r="Y54" s="0" t="n">
         <v>16.1245154965971</v>
       </c>
+      <c r="Z54" s="0" t="n">
+        <v>0.910644206812845</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <v>13.6014705087354</v>
+      </c>
+      <c r="AK54" s="0" t="n">
+        <v>0.908893255807517</v>
+      </c>
+      <c r="AM54" s="0" t="n">
+        <v>0.929992279935655</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0.0496208376665865</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>99.9449848666755</v>
+        <v>100.129915609672</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>0</v>
@@ -3323,7 +4411,7 @@
         <v>0.903772808952673</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>17.0293863659264</v>
+        <v>16.2480768092719</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>0.708799441696258</v>
@@ -3335,7 +4423,7 @@
         <v>0.930011917403583</v>
       </c>
       <c r="O55" s="0" t="n">
-        <v>17.1172427686237</v>
+        <v>13.4536240470737</v>
       </c>
       <c r="R55" s="0" t="n">
         <v>0.664273943408929</v>
@@ -3347,7 +4435,7 @@
         <v>0.931580738917546</v>
       </c>
       <c r="U55" s="0" t="n">
-        <v>9.48683298050514</v>
+        <v>14.456832294801</v>
       </c>
       <c r="X55" s="0" t="n">
         <v>0.624091052797977</v>
@@ -3355,16 +4443,28 @@
       <c r="Y55" s="0" t="n">
         <v>17.578395831247</v>
       </c>
+      <c r="Z55" s="0" t="n">
+        <v>0.940972111478485</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <v>10.4880884817015</v>
+      </c>
+      <c r="AK55" s="0" t="n">
+        <v>0.922472131715789</v>
+      </c>
+      <c r="AM55" s="0" t="n">
+        <v>0.931574178753839</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0.359611591630902</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>71.9513724677994</v>
+        <v>104.446158378372</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>0.0116223146564567</v>
@@ -3376,7 +4476,7 @@
         <v>0.905244069945968</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>16.9705627484771</v>
+        <v>19.4164878389476</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>0.675567212505948</v>
@@ -3388,7 +4488,7 @@
         <v>0.923831058176306</v>
       </c>
       <c r="O56" s="0" t="n">
-        <v>16.2788205960997</v>
+        <v>15.4272486205415</v>
       </c>
       <c r="R56" s="0" t="n">
         <v>0.729456228917646</v>
@@ -3400,7 +4500,7 @@
         <v>0.929954087739132</v>
       </c>
       <c r="U56" s="0" t="n">
-        <v>8.12403840463596</v>
+        <v>15.5884572681199</v>
       </c>
       <c r="X56" s="0" t="n">
         <v>0.676722256177421</v>
@@ -3408,16 +4508,34 @@
       <c r="Y56" s="0" t="n">
         <v>10.2469507659596</v>
       </c>
+      <c r="Z56" s="0" t="n">
+        <v>0.926817</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <v>26.6488</v>
+      </c>
+      <c r="AD56" s="0" t="n">
+        <v>0.768873</v>
+      </c>
+      <c r="AE56" s="0" t="n">
+        <v>20.2836</v>
+      </c>
+      <c r="AK56" s="0" t="n">
+        <v>0.921084723697939</v>
+      </c>
+      <c r="AM56" s="0" t="n">
+        <v>0.935257105796215</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0.423169867804234</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>75.0333259292163</v>
+        <v>144.547570024542</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>0.394429760181537</v>
@@ -3429,7 +4547,7 @@
         <v>0.893775619481562</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>20.2237484161567</v>
+        <v>14.7648230602334</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>0.902888583218707</v>
@@ -3441,7 +4559,7 @@
         <v>0.938965903985076</v>
       </c>
       <c r="O57" s="0" t="n">
-        <v>21.0237960416286</v>
+        <v>12.8062484748657</v>
       </c>
       <c r="R57" s="0" t="n">
         <v>0.90075714361102</v>
@@ -3453,7 +4571,7 @@
         <v>0.925781423391349</v>
       </c>
       <c r="U57" s="0" t="n">
-        <v>10.3923048454133</v>
+        <v>15.7797338380595</v>
       </c>
       <c r="X57" s="0" t="n">
         <v>0.842049896936527</v>
@@ -3461,16 +4579,34 @@
       <c r="Y57" s="0" t="n">
         <v>9.8488578017961</v>
       </c>
+      <c r="Z57" s="0" t="n">
+        <v>0.925049</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <v>24.102</v>
+      </c>
+      <c r="AD57" s="0" t="n">
+        <v>0.881942</v>
+      </c>
+      <c r="AE57" s="0" t="n">
+        <v>28.3133</v>
+      </c>
+      <c r="AK57" s="0" t="n">
+        <v>0.938199981888851</v>
+      </c>
+      <c r="AM57" s="0" t="n">
+        <v>0.931315499463019</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0.20522052781232</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>91.3509715328742</v>
+        <v>58.8727441181401</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>0.00860626987879526</v>
@@ -3482,7 +4618,7 @@
         <v>0.895886694188312</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>21.9544984001001</v>
+        <v>27.7308492477241</v>
       </c>
       <c r="L58" s="0" t="n">
         <v>0.85513736492781</v>
@@ -3494,7 +4630,7 @@
         <v>0.932510317672745</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>23.259406699226</v>
+        <v>22.6715680975093</v>
       </c>
       <c r="R58" s="0" t="n">
         <v>0.905373179486474</v>
@@ -3506,7 +4642,7 @@
         <v>0.929277271846541</v>
       </c>
       <c r="U58" s="0" t="n">
-        <v>10.4880884817015</v>
+        <v>13.6381816969859</v>
       </c>
       <c r="X58" s="0" t="n">
         <v>0.65157897634977</v>
@@ -3514,16 +4650,34 @@
       <c r="Y58" s="0" t="n">
         <v>17.1172427686237</v>
       </c>
+      <c r="Z58" s="0" t="n">
+        <v>0.94381</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <v>34.8315</v>
+      </c>
+      <c r="AD58" s="0" t="n">
+        <v>0.956038</v>
+      </c>
+      <c r="AE58" s="0" t="n">
+        <v>16.1189</v>
+      </c>
+      <c r="AK58" s="0" t="n">
+        <v>0.943032981692768</v>
+      </c>
+      <c r="AM58" s="0" t="n">
+        <v>0.941750518773736</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0.152562439648235</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>111.772089539384</v>
+        <v>134.810978781403</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>0.0210405488890557</v>
@@ -3535,7 +4689,7 @@
         <v>0.891683069543218</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>25.7875939164553</v>
+        <v>13.6014705087354</v>
       </c>
       <c r="L59" s="0" t="n">
         <v>0.842061872989035</v>
@@ -3547,7 +4701,7 @@
         <v>0.903277101790584</v>
       </c>
       <c r="O59" s="0" t="n">
-        <v>25.8650343127551</v>
+        <v>15.0665191733194</v>
       </c>
       <c r="R59" s="0" t="n">
         <v>0.860665889237587</v>
@@ -3559,7 +4713,7 @@
         <v>0.924829220430605</v>
       </c>
       <c r="U59" s="0" t="n">
-        <v>12.5299640861417</v>
+        <v>14.8660687473185</v>
       </c>
       <c r="X59" s="0" t="n">
         <v>0.647040197706298</v>
@@ -3567,16 +4721,34 @@
       <c r="Y59" s="0" t="n">
         <v>29.086079144498</v>
       </c>
+      <c r="Z59" s="0" t="n">
+        <v>0.895327</v>
+      </c>
+      <c r="AA59" s="0" t="n">
+        <v>34.4525</v>
+      </c>
+      <c r="AD59" s="0" t="n">
+        <v>0.870928</v>
+      </c>
+      <c r="AE59" s="0" t="n">
+        <v>22.4852</v>
+      </c>
+      <c r="AK59" s="0" t="n">
+        <v>0.94285157631077</v>
+      </c>
+      <c r="AM59" s="0" t="n">
+        <v>0.942808856666993</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1.38453018275798E-005</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>152.269497930479</v>
+        <v>132.732814330142</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>0</v>
@@ -3588,7 +4760,7 @@
         <v>0.878291985547759</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>20.6397674405503</v>
+        <v>32.2800247831379</v>
       </c>
       <c r="L60" s="0" t="n">
         <v>0.820699680933411</v>
@@ -3600,7 +4772,7 @@
         <v>0.929368934730771</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>14.456832294801</v>
+        <v>26.5518360947035</v>
       </c>
       <c r="R60" s="0" t="n">
         <v>0.838955989209944</v>
@@ -3612,7 +4784,7 @@
         <v>0.931820906124442</v>
       </c>
       <c r="U60" s="0" t="n">
-        <v>11.916375287813</v>
+        <v>27.8747197295327</v>
       </c>
       <c r="X60" s="0" t="n">
         <v>0.769344874852132</v>
@@ -3620,16 +4792,34 @@
       <c r="Y60" s="0" t="n">
         <v>12.6885775404495</v>
       </c>
+      <c r="Z60" s="0" t="n">
+        <v>0.910995</v>
+      </c>
+      <c r="AA60" s="0" t="n">
+        <v>32.9927</v>
+      </c>
+      <c r="AD60" s="0" t="n">
+        <v>0.965121</v>
+      </c>
+      <c r="AE60" s="0" t="n">
+        <v>31.9342</v>
+      </c>
+      <c r="AK60" s="0" t="n">
+        <v>0.907782434473879</v>
+      </c>
+      <c r="AM60" s="0" t="n">
+        <v>0.915288507544258</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0.242198481201484</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>60.8851377595551</v>
+        <v>114.564392373896</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>0</v>
@@ -3641,7 +4831,7 @@
         <v>0.902842789148238</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>17.578395831247</v>
+        <v>13.3790881602597</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>0.809721222029753</v>
@@ -3653,7 +4843,7 @@
         <v>0.908893255807517</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>15.2970585407784</v>
+        <v>23.8746727726266</v>
       </c>
       <c r="R61" s="0" t="n">
         <v>0.861068899358707</v>
@@ -3665,7 +4855,7 @@
         <v>0.929992279935655</v>
       </c>
       <c r="U61" s="0" t="n">
-        <v>7.48331477354788</v>
+        <v>12.8840987267251</v>
       </c>
       <c r="X61" s="0" t="n">
         <v>0.675886230581294</v>
@@ -3673,16 +4863,25 @@
       <c r="Y61" s="0" t="n">
         <v>8.77496438739212</v>
       </c>
+      <c r="Z61" s="0" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="AK61" s="0" t="n">
+        <v>0.939382718273705</v>
+      </c>
+      <c r="AM61" s="0" t="n">
+        <v>0.942885358915893</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0.108112367763726</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>133.600149700515</v>
+        <v>15.3948043183407</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>0.000416728134963921</v>
@@ -3694,7 +4893,7 @@
         <v>0.904778380411497</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>31</v>
+        <v>88.1419309976812</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>0.663673255300353</v>
@@ -3706,7 +4905,7 @@
         <v>0.922472131715789</v>
       </c>
       <c r="O62" s="0" t="n">
-        <v>34.132096331752</v>
+        <v>14.3178210632764</v>
       </c>
       <c r="R62" s="0" t="n">
         <v>0.688742935806078</v>
@@ -3718,7 +4917,7 @@
         <v>0.931574178753839</v>
       </c>
       <c r="U62" s="0" t="n">
-        <v>15.0332963783729</v>
+        <v>13.6014705087354</v>
       </c>
       <c r="X62" s="0" t="n">
         <v>0.524951671797809</v>
@@ -3726,16 +4925,34 @@
       <c r="Y62" s="0" t="n">
         <v>76.4002617796562</v>
       </c>
+      <c r="Z62" s="0" t="n">
+        <v>0.944185</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <v>28.9709</v>
+      </c>
+      <c r="AD62" s="0" t="n">
+        <v>0.651879</v>
+      </c>
+      <c r="AE62" s="0" t="n">
+        <v>140.184</v>
+      </c>
+      <c r="AK62" s="0" t="n">
+        <v>0.920731889754142</v>
+      </c>
+      <c r="AM62" s="0" t="n">
+        <v>0.918345659316145</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.513543782882742</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>57.8791845139511</v>
+        <v>117.481913501611</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>0.164089843572444</v>
@@ -3747,7 +4964,7 @@
         <v>0.916209216946196</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>18.02775637732</v>
+        <v>31.4483703870328</v>
       </c>
       <c r="L63" s="0" t="n">
         <v>0.885933891454965</v>
@@ -3759,7 +4976,7 @@
         <v>0.921084723697939</v>
       </c>
       <c r="O63" s="0" t="n">
-        <v>17.2626765016321</v>
+        <v>27.8567765543682</v>
       </c>
       <c r="R63" s="0" t="n">
         <v>0.887736764659842</v>
@@ -3771,7 +4988,7 @@
         <v>0.935257105796215</v>
       </c>
       <c r="U63" s="0" t="n">
-        <v>9</v>
+        <v>29.6310647800581</v>
       </c>
       <c r="X63" s="0" t="n">
         <v>0.757103443333692</v>
@@ -3779,16 +4996,34 @@
       <c r="Y63" s="0" t="n">
         <v>10.770329614269</v>
       </c>
+      <c r="Z63" s="0" t="n">
+        <v>0.899468</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <v>26.7179</v>
+      </c>
+      <c r="AD63" s="0" t="n">
+        <v>0.971343</v>
+      </c>
+      <c r="AE63" s="0" t="n">
+        <v>4.5895</v>
+      </c>
+      <c r="AK63" s="0" t="n">
+        <v>0.894667066105764</v>
+      </c>
+      <c r="AM63" s="0" t="n">
+        <v>0.895540722042615</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0.0568413958623849</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>108.98164983152</v>
+        <v>144.917217748617</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>0</v>
@@ -3800,7 +5035,7 @@
         <v>0.924840770459602</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>16</v>
+        <v>59.0338885725818</v>
       </c>
       <c r="L64" s="0" t="n">
         <v>0.369412551555011</v>
@@ -3812,7 +5047,7 @@
         <v>0.938199981888851</v>
       </c>
       <c r="O64" s="0" t="n">
-        <v>17</v>
+        <v>51.0489960724009</v>
       </c>
       <c r="R64" s="0" t="n">
         <v>0.428989139515455</v>
@@ -3824,7 +5059,7 @@
         <v>0.931315499463019</v>
       </c>
       <c r="U64" s="0" t="n">
-        <v>8.06225774829855</v>
+        <v>57.8791845139511</v>
       </c>
       <c r="X64" s="0" t="n">
         <v>0.243996157540826</v>
@@ -3832,16 +5067,28 @@
       <c r="Y64" s="0" t="n">
         <v>7.34846922834954</v>
       </c>
+      <c r="Z64" s="0" t="n">
+        <v>0.931978</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <v>39.0278</v>
+      </c>
+      <c r="AD64" s="0" t="n">
+        <v>0.301887</v>
+      </c>
+      <c r="AE64" s="0" t="n">
+        <v>13.6474</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.0601792944072513</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>104.809350727881</v>
+        <v>126.0357092256</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>0</v>
@@ -3853,7 +5100,7 @@
         <v>0.932960863991357</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>13.1529464379659</v>
+        <v>25.8650343127551</v>
       </c>
       <c r="L65" s="0" t="n">
         <v>0.909179174452861</v>
@@ -3865,7 +5112,7 @@
         <v>0.943032981692768</v>
       </c>
       <c r="O65" s="0" t="n">
-        <v>13.9283882771841</v>
+        <v>21.7944947177034</v>
       </c>
       <c r="R65" s="0" t="n">
         <v>0.919591630907413</v>
@@ -3877,7 +5124,7 @@
         <v>0.941750518773736</v>
       </c>
       <c r="U65" s="0" t="n">
-        <v>5.3851648071345</v>
+        <v>28.2488937836511</v>
       </c>
       <c r="X65" s="0" t="n">
         <v>0.797203585724756</v>
@@ -3885,16 +5132,28 @@
       <c r="Y65" s="0" t="n">
         <v>12.6885775404495</v>
       </c>
+      <c r="Z65" s="0" t="n">
+        <v>0.935233</v>
+      </c>
+      <c r="AA65" s="0" t="n">
+        <v>31.3035</v>
+      </c>
+      <c r="AD65" s="0" t="n">
+        <v>0.941404</v>
+      </c>
+      <c r="AE65" s="0" t="n">
+        <v>9.82376</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0.427433432685638</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>71.3652576538472</v>
+        <v>56.6568618968612</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>0.346048544200495</v>
@@ -3906,7 +5165,7 @@
         <v>0.923775096762502</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>33.1511689085016</v>
+        <v>37.4833296279826</v>
       </c>
       <c r="L66" s="0" t="n">
         <v>0.810246891806014</v>
@@ -3918,7 +5177,7 @@
         <v>0.94285157631077</v>
       </c>
       <c r="O66" s="0" t="n">
-        <v>32.3882694814033</v>
+        <v>14.525839046334</v>
       </c>
       <c r="R66" s="0" t="n">
         <v>0.847609540254695</v>
@@ -3930,7 +5189,7 @@
         <v>0.942808856666993</v>
       </c>
       <c r="U66" s="0" t="n">
-        <v>16.2480768092719</v>
+        <v>15.2970585407784</v>
       </c>
       <c r="X66" s="0" t="n">
         <v>0.61327645432111</v>
@@ -3938,16 +5197,22 @@
       <c r="Y66" s="0" t="n">
         <v>16.4012194668567</v>
       </c>
+      <c r="Z66" s="0" t="n">
+        <v>0.936294295258029</v>
+      </c>
+      <c r="AA66" s="0" t="n">
+        <v>31.3687742827162</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0.0600900098380006</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>121.40840168621</v>
+        <v>108.802573498976</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
@@ -3959,7 +5224,7 @@
         <v>0.910906978016613</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>18.3303027798234</v>
+        <v>29.5972971738975</v>
       </c>
       <c r="L67" s="0" t="n">
         <v>0.852305979929268</v>
@@ -3971,7 +5236,7 @@
         <v>0.907782434473879</v>
       </c>
       <c r="O67" s="0" t="n">
-        <v>21.4009345590327</v>
+        <v>24.5153013442625</v>
       </c>
       <c r="R67" s="0" t="n">
         <v>0.893907466261342</v>
@@ -3983,7 +5248,7 @@
         <v>0.915288507544258</v>
       </c>
       <c r="U67" s="0" t="n">
-        <v>10.6301458127347</v>
+        <v>28.2488937836511</v>
       </c>
       <c r="X67" s="0" t="n">
         <v>0.676526445731649</v>
@@ -3991,16 +5256,28 @@
       <c r="Y67" s="0" t="n">
         <v>12.6885775404495</v>
       </c>
+      <c r="Z67" s="0" t="n">
+        <v>0.893443</v>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <v>38.099</v>
+      </c>
+      <c r="AD67" s="0" t="n">
+        <v>0.943528</v>
+      </c>
+      <c r="AE67" s="0" t="n">
+        <v>10.015</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0.564746917702675</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>46.4435140789325</v>
+        <v>94.4933860119321</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>0.260609196953008</v>
@@ -4012,7 +5289,7 @@
         <v>0.888571015184604</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>40.9511904588865</v>
+        <v>15.0332963783729</v>
       </c>
       <c r="L68" s="0" t="n">
         <v>0.680410717810382</v>
@@ -4024,7 +5301,7 @@
         <v>0.909248968823936</v>
       </c>
       <c r="O68" s="0" t="n">
-        <v>42.3556371690947</v>
+        <v>13.6014705087354</v>
       </c>
       <c r="R68" s="0" t="n">
         <v>0.684274758430573</v>
@@ -4036,7 +5313,7 @@
         <v>0.917939123614902</v>
       </c>
       <c r="U68" s="0" t="n">
-        <v>21.6564078277077</v>
+        <v>17.0293863659264</v>
       </c>
       <c r="X68" s="0" t="n">
         <v>0.761949924127466</v>
@@ -4047,13 +5324,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>207.800384985206</v>
+        <v>19.8746069143518</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>0</v>
@@ -4065,7 +5342,7 @@
         <v>0.857652360712899</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>20.9045449603669</v>
+        <v>39.319206502675</v>
       </c>
       <c r="L69" s="0" t="n">
         <v>0.722647006430185</v>
@@ -4077,7 +5354,7 @@
         <v>0.911154255580951</v>
       </c>
       <c r="O69" s="0" t="n">
-        <v>18.3303027798234</v>
+        <v>16.7630546142402</v>
       </c>
       <c r="R69" s="0" t="n">
         <v>0.806293077021963</v>
@@ -4089,7 +5366,7 @@
         <v>0.910682341716933</v>
       </c>
       <c r="U69" s="0" t="n">
-        <v>9</v>
+        <v>14.4913767461894</v>
       </c>
       <c r="X69" s="0" t="n">
         <v>0.553701259479654</v>
@@ -4100,13 +5377,13 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0.309745642279525</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>101.118742080783</v>
+        <v>100.970292660762</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0.201960194719177</v>
@@ -4124,7 +5401,7 @@
         <v>0.920744052308177</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>12.6885775404495</v>
+        <v>12.369316876853</v>
       </c>
       <c r="L70" s="0" t="n">
         <v>0.720304029106104</v>
@@ -4136,7 +5413,7 @@
         <v>0.939382718273705</v>
       </c>
       <c r="O70" s="0" t="n">
-        <v>17</v>
+        <v>16.5227116418583</v>
       </c>
       <c r="R70" s="0" t="n">
         <v>0.832204179660895</v>
@@ -4148,7 +5425,7 @@
         <v>0.942885358915893</v>
       </c>
       <c r="U70" s="0" t="n">
-        <v>6.70820393249937</v>
+        <v>13</v>
       </c>
       <c r="X70" s="0" t="n">
         <v>0.66902581182348</v>
@@ -4156,63 +5433,93 @@
       <c r="Y70" s="0" t="n">
         <v>5.74456264653803</v>
       </c>
+      <c r="Z70" s="0" t="n">
+        <v>0.918813</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <v>46.3675</v>
+      </c>
+      <c r="AD70" s="0" t="n">
+        <v>0.948289</v>
+      </c>
+      <c r="AE70" s="0" t="n">
+        <v>4.10528</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.410643296082143</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>60.4235053600832</v>
+        <v>75.3989389845772</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>41.5932686861708</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>0.919882541469964</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>41.8927201313068</v>
-      </c>
-      <c r="J71" s="0" t="n">
+        <v>25.0998007960223</v>
+      </c>
+      <c r="L71" s="0" t="n">
         <v>0.89134218765699</v>
       </c>
-      <c r="K71" s="0" t="n">
+      <c r="M71" s="0" t="n">
         <v>9.4339811320566</v>
       </c>
       <c r="N71" s="0" t="n">
         <v>0.920731889754142</v>
       </c>
       <c r="O71" s="0" t="n">
-        <v>41.8568990729127</v>
-      </c>
-      <c r="P71" s="0" t="n">
+        <v>22.0907220343745</v>
+      </c>
+      <c r="R71" s="0" t="n">
         <v>0.838959741236413</v>
       </c>
-      <c r="Q71" s="0" t="n">
+      <c r="S71" s="0" t="n">
         <v>12.0830459735946</v>
       </c>
       <c r="T71" s="0" t="n">
         <v>0.918345659316145</v>
       </c>
       <c r="U71" s="0" t="n">
-        <v>21.540659228538</v>
-      </c>
-      <c r="V71" s="0" t="n">
+        <v>22.0454076850486</v>
+      </c>
+      <c r="X71" s="0" t="n">
         <v>0.826431787505296</v>
       </c>
-      <c r="W71" s="0" t="n">
+      <c r="Y71" s="0" t="n">
         <v>7.07106781186548</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>0.930552</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>33.2248</v>
+      </c>
+      <c r="AD71" s="0" t="n">
+        <v>0.888441</v>
+      </c>
+      <c r="AE71" s="0" t="n">
+        <v>21.0358</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>117.9618582424</v>
+        <v>97.821265581672</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0</v>
@@ -4224,7 +5531,7 @@
         <v>0.87159591512023</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>32.0156211871642</v>
+        <v>18.2756668824971</v>
       </c>
       <c r="L72" s="0" t="n">
         <v>0.434965517241379</v>
@@ -4236,7 +5543,7 @@
         <v>0.894667066105764</v>
       </c>
       <c r="O72" s="0" t="n">
-        <v>25.2586618806302</v>
+        <v>23.7486841740758</v>
       </c>
       <c r="R72" s="0" t="n">
         <v>0.563567911960614</v>
@@ -4248,7 +5555,7 @@
         <v>0.895540722042615</v>
       </c>
       <c r="U72" s="0" t="n">
-        <v>16.1554944214035</v>
+        <v>21.9544984001001</v>
       </c>
       <c r="X72" s="0" t="n">
         <v>0.324212230033888</v>
@@ -4256,10 +5563,16 @@
       <c r="Y72" s="0" t="n">
         <v>14.142135623731</v>
       </c>
+      <c r="Z72" s="0" t="n">
+        <v>0.914424557824389</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>20.2237484161567</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B73" s="0" t="n">
         <f aca="false">MIN(B4:B72)</f>
@@ -4267,7 +5580,7 @@
       </c>
       <c r="C73" s="0" t="n">
         <f aca="false">MIN(C4:C72)</f>
-        <v>37.0135110466435</v>
+        <v>15.3948043183407</v>
       </c>
       <c r="D73" s="0" t="n">
         <f aca="false">MIN(D4:D72)</f>
@@ -4291,15 +5604,15 @@
       </c>
       <c r="I73" s="0" t="n">
         <f aca="false">MIN(I4:I72)</f>
-        <v>10.4880884817015</v>
+        <v>12.369316876853</v>
       </c>
       <c r="J73" s="0" t="n">
         <f aca="false">MIN(J4:J72)</f>
-        <v>0.628896770580549</v>
+        <v>0.723751132167491</v>
       </c>
       <c r="K73" s="0" t="n">
         <f aca="false">MIN(K4:K72)</f>
-        <v>9</v>
+        <v>16.4012194668567</v>
       </c>
       <c r="L73" s="0" t="n">
         <f aca="false">MIN(L4:L72)</f>
@@ -4315,7 +5628,7 @@
       </c>
       <c r="O73" s="0" t="n">
         <f aca="false">MIN(O4:O72)</f>
-        <v>11.4891252930761</v>
+        <v>12.7279220613579</v>
       </c>
       <c r="P73" s="0" t="n">
         <f aca="false">MIN(P4:P72)</f>
@@ -4323,7 +5636,7 @@
       </c>
       <c r="Q73" s="0" t="n">
         <f aca="false">MIN(Q4:Q72)</f>
-        <v>7.07106781186548</v>
+        <v>11.5758369027902</v>
       </c>
       <c r="R73" s="0" t="n">
         <f aca="false">MIN(R4:R72)</f>
@@ -4339,7 +5652,7 @@
       </c>
       <c r="U73" s="0" t="n">
         <f aca="false">MIN(U4:U72)</f>
-        <v>5.3851648071345</v>
+        <v>11.2249721603218</v>
       </c>
       <c r="V73" s="0" t="n">
         <f aca="false">MIN(V4:V72)</f>
@@ -4347,7 +5660,7 @@
       </c>
       <c r="W73" s="0" t="n">
         <f aca="false">MIN(W4:W72)</f>
-        <v>5</v>
+        <v>5.47722557505166</v>
       </c>
       <c r="X73" s="0" t="n">
         <f aca="false">MIN(X4:X72)</f>
@@ -4355,12 +5668,36 @@
       </c>
       <c r="Y73" s="0" t="n">
         <f aca="false">MIN(Y4:Y72)</f>
-        <v>5.74456264653803</v>
+        <v>5</v>
+      </c>
+      <c r="Z73" s="0" t="n">
+        <f aca="false">MIN(Z4:Z72)</f>
+        <v>0.855851948180887</v>
+      </c>
+      <c r="AA73" s="0" t="n">
+        <f aca="false">MIN(AA4:AA72)</f>
+        <v>9.2736184954957</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <f aca="false">MIN(AB4:AB72)</f>
+        <v>0.628709142943214</v>
+      </c>
+      <c r="AC73" s="0" t="n">
+        <f aca="false">MIN(AC4:AC72)</f>
+        <v>48.8057373676497</v>
+      </c>
+      <c r="AD73" s="0" t="n">
+        <f aca="false">MIN(AD4:AD72)</f>
+        <v>0.301887</v>
+      </c>
+      <c r="AE73" s="0" t="n">
+        <f aca="false">MIN(AE4:AE72)</f>
+        <v>0.944847</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B74" s="0" t="n">
         <f aca="false">MAX(B4:B72)</f>
@@ -4368,11 +5705,11 @@
       </c>
       <c r="C74" s="0" t="n">
         <f aca="false">MAX(C4:C72)</f>
-        <v>207.800384985206</v>
+        <v>207.737815527169</v>
       </c>
       <c r="D74" s="0" t="n">
         <f aca="false">MAX(D4:D72)</f>
-        <v>0.636354763319226</v>
+        <v>0.256812064349842</v>
       </c>
       <c r="E74" s="0" t="n">
         <f aca="false">MAX(E4:E72)</f>
@@ -4380,7 +5717,7 @@
       </c>
       <c r="F74" s="0" t="n">
         <f aca="false">MAX(F4:F72)</f>
-        <v>0.394429760181537</v>
+        <v>0.636354763319226</v>
       </c>
       <c r="G74" s="0" t="n">
         <f aca="false">MAX(G4:G72)</f>
@@ -4392,11 +5729,11 @@
       </c>
       <c r="I74" s="0" t="n">
         <f aca="false">MAX(I4:I72)</f>
-        <v>63.285069329187</v>
+        <v>135.598672559874</v>
       </c>
       <c r="J74" s="0" t="n">
         <f aca="false">MAX(J4:J72)</f>
-        <v>0.94789175643429</v>
+        <v>0.893250062448346</v>
       </c>
       <c r="K74" s="0" t="n">
         <f aca="false">MAX(K4:K72)</f>
@@ -4416,11 +5753,11 @@
       </c>
       <c r="O74" s="0" t="n">
         <f aca="false">MAX(O4:O72)</f>
-        <v>59.8414572015087</v>
+        <v>51.0489960724009</v>
       </c>
       <c r="P74" s="0" t="n">
         <f aca="false">MAX(P4:P72)</f>
-        <v>0.957604346907589</v>
+        <v>0.876796053280904</v>
       </c>
       <c r="Q74" s="0" t="n">
         <f aca="false">MAX(Q4:Q72)</f>
@@ -4428,7 +5765,7 @@
       </c>
       <c r="R74" s="0" t="n">
         <f aca="false">MAX(R4:R72)</f>
-        <v>0.944313007043808</v>
+        <v>0.957604346907589</v>
       </c>
       <c r="S74" s="0" t="n">
         <f aca="false">MAX(S4:S72)</f>
@@ -4440,11 +5777,11 @@
       </c>
       <c r="U74" s="0" t="n">
         <f aca="false">MAX(U4:U72)</f>
-        <v>28.6006992921502</v>
+        <v>57.8791845139511</v>
       </c>
       <c r="V74" s="0" t="n">
         <f aca="false">MAX(V4:V72)</f>
-        <v>0.923964091006384</v>
+        <v>0.859633449050439</v>
       </c>
       <c r="W74" s="0" t="n">
         <f aca="false">MAX(W4:W72)</f>
@@ -4452,117 +5789,165 @@
       </c>
       <c r="X74" s="0" t="n">
         <f aca="false">MAX(X4:X72)</f>
-        <v>0.85664367132443</v>
+        <v>0.923964091006384</v>
       </c>
       <c r="Y74" s="0" t="n">
         <f aca="false">MAX(Y4:Y72)</f>
         <v>76.4002617796562</v>
       </c>
+      <c r="Z74" s="0" t="n">
+        <f aca="false">MAX(Z4:Z72)</f>
+        <v>0.946053749658875</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <f aca="false">MAX(AA4:AA72)</f>
+        <v>51.583</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <f aca="false">MAX(AB4:AB72)</f>
+        <v>0.628709142943214</v>
+      </c>
+      <c r="AC74" s="0" t="n">
+        <f aca="false">MAX(AC4:AC72)</f>
+        <v>48.8057373676497</v>
+      </c>
+      <c r="AD74" s="0" t="n">
+        <f aca="false">MAX(AD4:AD72)</f>
+        <v>0.982299</v>
+      </c>
+      <c r="AE74" s="0" t="n">
+        <f aca="false">MAX(AE4:AE72)</f>
+        <v>140.184</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B75" s="3" t="n">
         <f aca="false">AVERAGE(B4:B72)</f>
         <v>0.208970721396147</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="C75" s="0" t="n">
         <f aca="false">AVERAGE(C4:C72)</f>
-        <v>101.018271006242</v>
-      </c>
-      <c r="D75" s="2" t="n">
+        <v>96.4671777662203</v>
+      </c>
+      <c r="D75" s="3" t="n">
         <f aca="false">AVERAGE(D4:D72)</f>
-        <v>0.13776999918484</v>
-      </c>
-      <c r="E75" s="3" t="n">
+        <v>0.0952093409148931</v>
+      </c>
+      <c r="E75" s="0" t="n">
         <f aca="false">AVERAGE(E4:E72)</f>
-        <v>84.9133560906863</v>
-      </c>
-      <c r="F75" s="2" t="n">
+        <v>92.6653563849713</v>
+      </c>
+      <c r="F75" s="3" t="n">
         <f aca="false">AVERAGE(F4:F72)</f>
-        <v>0.0527093482084987</v>
-      </c>
-      <c r="G75" s="3" t="n">
+        <v>0.060049488043994</v>
+      </c>
+      <c r="G75" s="0" t="n">
         <f aca="false">AVERAGE(G4:G72)</f>
-        <v>100.531172796318</v>
-      </c>
-      <c r="H75" s="2" t="n">
+        <v>98.0300255997943</v>
+      </c>
+      <c r="H75" s="3" t="n">
         <f aca="false">AVERAGE(H4:H72)</f>
         <v>0.900435915892148</v>
       </c>
-      <c r="I75" s="3" t="n">
+      <c r="I75" s="0" t="n">
         <f aca="false">AVERAGE(I4:I72)</f>
-        <v>22.3218613124749</v>
-      </c>
-      <c r="J75" s="2" t="n">
+        <v>26.554239752699</v>
+      </c>
+      <c r="J75" s="3" t="n">
         <f aca="false">AVERAGE(J4:J72)</f>
-        <v>0.80896791938269</v>
-      </c>
-      <c r="K75" s="3" t="n">
+        <v>0.797462390117449</v>
+      </c>
+      <c r="K75" s="0" t="n">
         <f aca="false">AVERAGE(K4:K72)</f>
-        <v>26.9464973434751</v>
-      </c>
-      <c r="L75" s="2" t="n">
+        <v>31.6372940861302</v>
+      </c>
+      <c r="L75" s="3" t="n">
         <f aca="false">AVERAGE(L4:L72)</f>
-        <v>0.753102414362586</v>
-      </c>
-      <c r="M75" s="3" t="n">
+        <v>0.758086032804178</v>
+      </c>
+      <c r="M75" s="0" t="n">
         <f aca="false">AVERAGE(M4:M72)</f>
-        <v>21.4658796596099</v>
+        <v>21.2869762749685</v>
       </c>
       <c r="N75" s="4" t="n">
         <f aca="false">AVERAGE(N4:N72)</f>
         <v>0.917065036848832</v>
       </c>
-      <c r="O75" s="3" t="n">
+      <c r="O75" s="0" t="n">
         <f aca="false">AVERAGE(O4:O72)</f>
-        <v>20.8127782172954</v>
-      </c>
-      <c r="P75" s="2" t="n">
+        <v>20.3373206311663</v>
+      </c>
+      <c r="P75" s="3" t="n">
         <f aca="false">AVERAGE(P4:P72)</f>
-        <v>0.798411879897161</v>
-      </c>
-      <c r="Q75" s="3" t="n">
+        <v>0.769348511374394</v>
+      </c>
+      <c r="Q75" s="0" t="n">
         <f aca="false">AVERAGE(Q4:Q72)</f>
-        <v>25.0086643412393</v>
-      </c>
-      <c r="R75" s="2" t="n">
+        <v>29.5483333593795</v>
+      </c>
+      <c r="R75" s="3" t="n">
         <f aca="false">AVERAGE(R4:R72)</f>
-        <v>0.763092591177682</v>
-      </c>
-      <c r="S75" s="3" t="n">
+        <v>0.768743750760261</v>
+      </c>
+      <c r="S75" s="0" t="n">
         <f aca="false">AVERAGE(S4:S72)</f>
-        <v>21.6216626685384</v>
+        <v>21.322815513847</v>
       </c>
       <c r="T75" s="4" t="n">
         <f aca="false">AVERAGE(T4:T72)</f>
         <v>0.928437334559924</v>
       </c>
-      <c r="U75" s="3" t="n">
+      <c r="U75" s="0" t="n">
         <f aca="false">AVERAGE(U4:U72)</f>
-        <v>10.5122906570335</v>
-      </c>
-      <c r="V75" s="2" t="n">
+        <v>20.5300236149782</v>
+      </c>
+      <c r="V75" s="3" t="n">
         <f aca="false">AVERAGE(V4:V72)</f>
-        <v>0.694007912633451</v>
-      </c>
-      <c r="W75" s="3" t="n">
+        <v>0.637972736642293</v>
+      </c>
+      <c r="W75" s="0" t="n">
         <f aca="false">AVERAGE(W4:W72)</f>
-        <v>16.0052777367149</v>
-      </c>
-      <c r="X75" s="2" t="n">
+        <v>19.7250606942409</v>
+      </c>
+      <c r="X75" s="3" t="n">
         <f aca="false">AVERAGE(X4:X72)</f>
-        <v>0.627132344680625</v>
-      </c>
-      <c r="Y75" s="3" t="n">
+        <v>0.641163768947114</v>
+      </c>
+      <c r="Y75" s="0" t="n">
         <f aca="false">AVERAGE(Y4:Y72)</f>
-        <v>16.9386000713365</v>
+        <v>16.2448522931374</v>
+      </c>
+      <c r="Z75" s="4" t="n">
+        <f aca="false">AVERAGE(Z4:Z72)</f>
+        <v>0.921894174721001</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <f aca="false">AVERAGE(AA4:AA72)</f>
+        <v>25.9374111344702</v>
+      </c>
+      <c r="AB75" s="3" t="n">
+        <f aca="false">AVERAGE(AB4:AB72)</f>
+        <v>0.628709142943214</v>
+      </c>
+      <c r="AC75" s="0" t="n">
+        <f aca="false">AVERAGE(AC4:AC72)</f>
+        <v>48.8057373676497</v>
+      </c>
+      <c r="AD75" s="3" t="n">
+        <f aca="false">AVERAGE(AD4:AD72)</f>
+        <v>0.843297266134859</v>
+      </c>
+      <c r="AE75" s="0" t="n">
+        <f aca="false">AVERAGE(AE4:AE72)</f>
+        <v>22.5617838407571</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B76" s="0" t="n">
         <f aca="false">MEDIAN(B4:B72)</f>
@@ -4570,15 +5955,15 @@
       </c>
       <c r="C76" s="0" t="n">
         <f aca="false">MEDIAN(C4:C72)</f>
-        <v>102.083299319722</v>
+        <v>100.129915609672</v>
       </c>
       <c r="D76" s="0" t="n">
         <f aca="false">MEDIAN(D4:D72)</f>
-        <v>0.0222311594799808</v>
+        <v>0.00376141859215476</v>
       </c>
       <c r="E76" s="0" t="n">
         <f aca="false">MEDIAN(E4:E72)</f>
-        <v>69.4190175672344</v>
+        <v>107.902733978338</v>
       </c>
       <c r="F76" s="0" t="n">
         <f aca="false">MEDIAN(F4:F72)</f>
@@ -4586,7 +5971,7 @@
       </c>
       <c r="G76" s="0" t="n">
         <f aca="false">MEDIAN(G4:G72)</f>
-        <v>96.8813707582629</v>
+        <v>96.2340895940726</v>
       </c>
       <c r="H76" s="0" t="n">
         <f aca="false">MEDIAN(H4:H72)</f>
@@ -4594,23 +5979,23 @@
       </c>
       <c r="I76" s="0" t="n">
         <f aca="false">MEDIAN(I4:I72)</f>
-        <v>20.2237484161567</v>
+        <v>20.5426385841741</v>
       </c>
       <c r="J76" s="0" t="n">
         <f aca="false">MEDIAN(J4:J72)</f>
-        <v>0.803703068235224</v>
+        <v>0.803072250911399</v>
       </c>
       <c r="K76" s="0" t="n">
         <f aca="false">MEDIAN(K4:K72)</f>
-        <v>22.8254244210266</v>
+        <v>29.5296461204668</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">MEDIAN(L4:L72)</f>
-        <v>0.802651954905253</v>
+        <v>0.809721222029753</v>
       </c>
       <c r="M76" s="0" t="n">
         <f aca="false">MEDIAN(M4:M72)</f>
-        <v>15.52417469626</v>
+        <v>15.2315462117278</v>
       </c>
       <c r="N76" s="0" t="n">
         <f aca="false">MEDIAN(N4:N72)</f>
@@ -4618,23 +6003,23 @@
       </c>
       <c r="O76" s="0" t="n">
         <f aca="false">MEDIAN(O4:O72)</f>
-        <v>19.0262975904405</v>
+        <v>19.2093727122986</v>
       </c>
       <c r="P76" s="0" t="n">
         <f aca="false">MEDIAN(P4:P72)</f>
-        <v>0.838959741236413</v>
+        <v>0.795067373040829</v>
       </c>
       <c r="Q76" s="0" t="n">
         <f aca="false">MEDIAN(Q4:Q72)</f>
-        <v>24.6779253585061</v>
+        <v>31.0805405358401</v>
       </c>
       <c r="R76" s="0" t="n">
         <f aca="false">MEDIAN(R4:R72)</f>
-        <v>0.806439888674433</v>
+        <v>0.80846198166067</v>
       </c>
       <c r="S76" s="0" t="n">
         <f aca="false">MEDIAN(S4:S72)</f>
-        <v>14.3527000944073</v>
+        <v>14</v>
       </c>
       <c r="T76" s="0" t="n">
         <f aca="false">MEDIAN(T4:T72)</f>
@@ -4642,28 +6027,52 @@
       </c>
       <c r="U76" s="0" t="n">
         <f aca="false">MEDIAN(U4:U72)</f>
-        <v>9.4339811320566</v>
+        <v>18.3303027798234</v>
       </c>
       <c r="V76" s="0" t="n">
         <f aca="false">MEDIAN(V4:V72)</f>
-        <v>0.765299747708534</v>
+        <v>0.743503314284654</v>
       </c>
       <c r="W76" s="0" t="n">
         <f aca="false">MEDIAN(W4:W72)</f>
-        <v>8.93797188126917</v>
+        <v>11.6689926101627</v>
       </c>
       <c r="X76" s="0" t="n">
         <f aca="false">MEDIAN(X4:X72)</f>
-        <v>0.648090277777778</v>
+        <v>0.654572564612326</v>
       </c>
       <c r="Y76" s="0" t="n">
         <f aca="false">MEDIAN(Y4:Y72)</f>
-        <v>14.142135623731</v>
+        <v>13.4536240470737</v>
+      </c>
+      <c r="Z76" s="0" t="n">
+        <f aca="false">MEDIAN(Z4:Z72)</f>
+        <v>0.925914</v>
+      </c>
+      <c r="AA76" s="0" t="n">
+        <f aca="false">MEDIAN(AA4:AA72)</f>
+        <v>26.8700576850888</v>
+      </c>
+      <c r="AB76" s="0" t="n">
+        <f aca="false">MEDIAN(AB4:AB72)</f>
+        <v>0.628709142943214</v>
+      </c>
+      <c r="AC76" s="0" t="n">
+        <f aca="false">MEDIAN(AC4:AC72)</f>
+        <v>48.8057373676497</v>
+      </c>
+      <c r="AD76" s="0" t="n">
+        <f aca="false">MEDIAN(AD4:AD72)</f>
+        <v>0.898216</v>
+      </c>
+      <c r="AE76" s="0" t="n">
+        <f aca="false">MEDIAN(AE4:AE72)</f>
+        <v>15.4587742934744</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B72)</f>
@@ -4671,23 +6080,23 @@
       </c>
       <c r="C77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(C4:C72)</f>
-        <v>32.0265550326177</v>
+        <v>36.1758525742328</v>
       </c>
       <c r="D77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(D4:D72)</f>
-        <v>0.18647749484932</v>
+        <v>0.107638148823542</v>
       </c>
       <c r="E77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(E4:E72)</f>
-        <v>38.3179776601237</v>
+        <v>38.1126772936603</v>
       </c>
       <c r="F77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(F4:F72)</f>
-        <v>0.102257680317085</v>
+        <v>0.12412771027879</v>
       </c>
       <c r="G77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(G4:G72)</f>
-        <v>34.8446547244118</v>
+        <v>35.6570547902305</v>
       </c>
       <c r="H77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H72)</f>
@@ -4695,23 +6104,23 @@
       </c>
       <c r="I77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(I4:I72)</f>
-        <v>8.28713077802829</v>
+        <v>20.0666253417323</v>
       </c>
       <c r="J77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(J4:J72)</f>
-        <v>0.0837733640509697</v>
+        <v>0.0481288695365827</v>
       </c>
       <c r="K77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(K4:K72)</f>
-        <v>15.5702195059524</v>
+        <v>14.1450211349332</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(L4:L72)</f>
-        <v>0.158340289560862</v>
+        <v>0.157287861119465</v>
       </c>
       <c r="M77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(M4:M72)</f>
-        <v>22.0021181576139</v>
+        <v>21.6013596662243</v>
       </c>
       <c r="N77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N72)</f>
@@ -4719,23 +6128,23 @@
       </c>
       <c r="O77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(O4:O72)</f>
-        <v>7.79831841643119</v>
+        <v>6.45513376034754</v>
       </c>
       <c r="P77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(P4:P72)</f>
-        <v>0.125783556296031</v>
+        <v>0.133226814202646</v>
       </c>
       <c r="Q77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(Q4:Q72)</f>
-        <v>15.0973621613467</v>
+        <v>15.0820232148877</v>
       </c>
       <c r="R77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(R4:R72)</f>
-        <v>0.161438790845396</v>
+        <v>0.159242692042062</v>
       </c>
       <c r="S77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(S4:S72)</f>
-        <v>22.1872853966522</v>
+        <v>21.674034420722</v>
       </c>
       <c r="T77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T72)</f>
@@ -4743,50 +6152,73 @@
       </c>
       <c r="U77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(U4:U72)</f>
-        <v>4.17537712399174</v>
+        <v>7.7532143828858</v>
       </c>
       <c r="V77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(V4:V72)</f>
-        <v>0.23546276440956</v>
+        <v>0.255793350291667</v>
       </c>
       <c r="W77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(W4:W72)</f>
-        <v>18.7971030898545</v>
+        <v>21.1144969300363</v>
       </c>
       <c r="X77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(X4:X72)</f>
-        <v>0.154557482439232</v>
+        <v>0.158678767459105</v>
       </c>
       <c r="Y77" s="0" t="n">
         <f aca="false">_xlfn.STDEV.P(Y4:Y72)</f>
-        <v>10.9133867081443</v>
+        <v>10.8496517670234</v>
+      </c>
+      <c r="Z77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(Z4:Z72)</f>
+        <v>0.0180247499604603</v>
+      </c>
+      <c r="AA77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(AA4:AA72)</f>
+        <v>9.54746822245533</v>
+      </c>
+      <c r="AB77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(AB4:AB72)</f>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(AC4:AC72)</f>
+        <v>0</v>
+      </c>
+      <c r="AD77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(AD4:AD72)</f>
+        <v>0.155027042325315</v>
+      </c>
+      <c r="AE77" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(AE4:AE72)</f>
+        <v>27.581801748478</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="5" t="n">
-        <f aca="false">SUM(B74,-B73)</f>
-        <v>0.681283344230518</v>
-      </c>
-      <c r="C78" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="0" t="n">
         <f aca="false">SUM(C74,-C73)</f>
-        <v>170.786873938563</v>
+        <v>192.343011208828</v>
       </c>
       <c r="D78" s="5" t="n">
         <f aca="false">SUM(D74,-D73)</f>
-        <v>0.636354763319226</v>
-      </c>
-      <c r="E78" s="3" t="n">
+        <v>0.256812064349842</v>
+      </c>
+      <c r="E78" s="0" t="n">
         <f aca="false">SUM(E74,-E73)</f>
         <v>99.2612662071012</v>
       </c>
       <c r="F78" s="5" t="n">
         <f aca="false">SUM(F74,-F73)</f>
-        <v>0.394429760181537</v>
-      </c>
-      <c r="G78" s="3" t="n">
+        <v>0.636354763319226</v>
+      </c>
+      <c r="G78" s="0" t="n">
         <f aca="false">SUM(G74,-G73)</f>
         <v>160.700395090181</v>
       </c>
@@ -4794,23 +6226,23 @@
         <f aca="false">SUM(H74,-H73)</f>
         <v>0.085772846749256</v>
       </c>
-      <c r="I78" s="3" t="n">
+      <c r="I78" s="0" t="n">
         <f aca="false">SUM(I74,-I73)</f>
-        <v>52.7969808474855</v>
+        <v>123.229355683021</v>
       </c>
       <c r="J78" s="5" t="n">
         <f aca="false">SUM(J74,-J73)</f>
-        <v>0.318994985853741</v>
-      </c>
-      <c r="K78" s="3" t="n">
+        <v>0.169498930280855</v>
+      </c>
+      <c r="K78" s="0" t="n">
         <f aca="false">SUM(K74,-K73)</f>
-        <v>51.2909611799314</v>
+        <v>43.8897417130747</v>
       </c>
       <c r="L78" s="5" t="n">
         <f aca="false">SUM(L74,-L73)</f>
         <v>0.601497504647736</v>
       </c>
-      <c r="M78" s="3" t="n">
+      <c r="M78" s="0" t="n">
         <f aca="false">SUM(M74,-M73)</f>
         <v>121.566125721665</v>
       </c>
@@ -4818,23 +6250,23 @@
         <f aca="false">SUM(N74,-N73)</f>
         <v>0.0771960782645921</v>
       </c>
-      <c r="O78" s="3" t="n">
+      <c r="O78" s="0" t="n">
         <f aca="false">SUM(O74,-O73)</f>
-        <v>48.3523319084326</v>
+        <v>38.321074011043</v>
       </c>
       <c r="P78" s="5" t="n">
         <f aca="false">SUM(P74,-P73)</f>
-        <v>0.49337607919656</v>
-      </c>
-      <c r="Q78" s="3" t="n">
+        <v>0.412567785569875</v>
+      </c>
+      <c r="Q78" s="0" t="n">
         <f aca="false">SUM(Q74,-Q73)</f>
-        <v>53.2281859148598</v>
+        <v>48.7234168239351</v>
       </c>
       <c r="R78" s="5" t="n">
         <f aca="false">SUM(R74,-R73)</f>
-        <v>0.67079003111383</v>
-      </c>
-      <c r="S78" s="3" t="n">
+        <v>0.684081370977611</v>
+      </c>
+      <c r="S78" s="0" t="n">
         <f aca="false">SUM(S74,-S73)</f>
         <v>124.975872316694</v>
       </c>
@@ -4842,147 +6274,195 @@
         <f aca="false">SUM(T74,-T73)</f>
         <v>0.059502938578181</v>
       </c>
-      <c r="U78" s="3" t="n">
+      <c r="U78" s="0" t="n">
         <f aca="false">SUM(U74,-U73)</f>
-        <v>23.2155344850157</v>
+        <v>46.6542123536293</v>
       </c>
       <c r="V78" s="5" t="n">
         <f aca="false">SUM(V74,-V73)</f>
-        <v>0.923964091006384</v>
-      </c>
-      <c r="W78" s="3" t="n">
+        <v>0.859633449050439</v>
+      </c>
+      <c r="W78" s="0" t="n">
         <f aca="false">SUM(W74,-W73)</f>
-        <v>74.328431221095</v>
+        <v>73.8512056460433</v>
       </c>
       <c r="X78" s="5" t="n">
         <f aca="false">SUM(X74,-X73)</f>
-        <v>0.674218011451393</v>
-      </c>
-      <c r="Y78" s="3" t="n">
+        <v>0.741538431133347</v>
+      </c>
+      <c r="Y78" s="0" t="n">
         <f aca="false">SUM(Y74,-Y73)</f>
-        <v>70.6556991331182</v>
+        <v>71.4002617796562</v>
+      </c>
+      <c r="Z78" s="6" t="n">
+        <f aca="false">SUM(Z74,-Z73)</f>
+        <v>0.0902018014779881</v>
+      </c>
+      <c r="AA78" s="0" t="n">
+        <f aca="false">SUM(AA74,-AA73)</f>
+        <v>42.3093815045043</v>
+      </c>
+      <c r="AB78" s="5" t="n">
+        <f aca="false">SUM(AB74,-AB73)</f>
+        <v>0</v>
+      </c>
+      <c r="AC78" s="0" t="n">
+        <f aca="false">SUM(AC74,-AC73)</f>
+        <v>0</v>
+      </c>
+      <c r="AD78" s="5" t="n">
+        <f aca="false">SUM(AD74,-AD73)</f>
+        <v>0.680412</v>
+      </c>
+      <c r="AE78" s="0" t="n">
+        <f aca="false">SUM(AE74,-AE73)</f>
+        <v>139.239153</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="B79" s="8" t="n">
         <f aca="false">QUARTILE(B$4:B$72,1)</f>
         <v>0.0309669812009118</v>
       </c>
-      <c r="C79" s="5" t="n">
+      <c r="C79" s="9" t="n">
         <f aca="false">QUARTILE(C$4:C$72,1)</f>
-        <v>75.7693869580585</v>
-      </c>
-      <c r="D79" s="5" t="n">
+        <v>72.5327512231544</v>
+      </c>
+      <c r="D79" s="8" t="n">
         <f aca="false">QUARTILE(D$4:D$72,1)</f>
-        <v>8.9708948288174E-007</v>
-      </c>
-      <c r="E79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="0" t="n">
         <f aca="false">QUARTILE(E$4:E$72,1)</f>
-        <v>48.5172979989306</v>
-      </c>
-      <c r="F79" s="5" t="n">
+        <v>48.7852436706019</v>
+      </c>
+      <c r="F79" s="8" t="n">
         <f aca="false">QUARTILE(F$4:F$72,1)</f>
         <v>0</v>
       </c>
-      <c r="G79" s="3" t="n">
+      <c r="G79" s="0" t="n">
         <f aca="false">QUARTILE(G$4:G$72,1)</f>
-        <v>83.4445923951936</v>
-      </c>
-      <c r="H79" s="5" t="n">
+        <v>76.6420250254389</v>
+      </c>
+      <c r="H79" s="8" t="n">
         <f aca="false">QUARTILE(H$4:H$72,1)</f>
         <v>0.890234697485166</v>
       </c>
-      <c r="I79" s="3" t="n">
+      <c r="I79" s="0" t="n">
         <f aca="false">QUARTILE(I$4:I$72,1)</f>
-        <v>16.9705627484771</v>
-      </c>
-      <c r="J79" s="5" t="n">
+        <v>17.2336879396141</v>
+      </c>
+      <c r="J79" s="8" t="n">
         <f aca="false">QUARTILE(J$4:J$72,1)</f>
         <v>0.772429796972184</v>
       </c>
-      <c r="K79" s="3" t="n">
+      <c r="K79" s="0" t="n">
         <f aca="false">QUARTILE(K$4:K$72,1)</f>
-        <v>14.5841824008302</v>
-      </c>
-      <c r="L79" s="5" t="n">
+        <v>20.2161206413428</v>
+      </c>
+      <c r="L79" s="8" t="n">
         <f aca="false">QUARTILE(L$4:L$72,1)</f>
         <v>0.708799441696258</v>
       </c>
-      <c r="M79" s="3" t="n">
+      <c r="M79" s="0" t="n">
         <f aca="false">QUARTILE(M$4:M$72,1)</f>
-        <v>11.180339887499</v>
-      </c>
-      <c r="N79" s="5" t="n">
+        <v>10.6770782520313</v>
+      </c>
+      <c r="N79" s="8" t="n">
         <f aca="false">QUARTILE(N$4:N$72,1)</f>
         <v>0.907782434473879</v>
       </c>
-      <c r="O79" s="3" t="n">
+      <c r="O79" s="0" t="n">
         <f aca="false">QUARTILE(O$4:O$72,1)</f>
-        <v>16.2788205960997</v>
-      </c>
-      <c r="P79" s="5" t="n">
+        <v>16.0934769394311</v>
+      </c>
+      <c r="P79" s="8" t="n">
         <f aca="false">QUARTILE(P$4:P$72,1)</f>
         <v>0.758924452777668</v>
       </c>
-      <c r="Q79" s="3" t="n">
+      <c r="Q79" s="0" t="n">
         <f aca="false">QUARTILE(Q$4:Q$72,1)</f>
-        <v>12.3858117570221</v>
-      </c>
-      <c r="R79" s="5" t="n">
+        <v>18.8581650844557</v>
+      </c>
+      <c r="R79" s="8" t="n">
         <f aca="false">QUARTILE(R$4:R$72,1)</f>
         <v>0.722408239382894</v>
       </c>
-      <c r="S79" s="3" t="n">
+      <c r="S79" s="0" t="n">
         <f aca="false">QUARTILE(S$4:S$72,1)</f>
         <v>11.180339887499</v>
       </c>
-      <c r="T79" s="5" t="n">
+      <c r="T79" s="8" t="n">
         <f aca="false">QUARTILE(T$4:T$72,1)</f>
         <v>0.919218815692934</v>
       </c>
-      <c r="U79" s="5" t="n">
+      <c r="U79" s="8" t="n">
         <f aca="false">QUARTILE(U$4:U$72,1)</f>
-        <v>7.68114574786861</v>
-      </c>
-      <c r="V79" s="5" t="n">
+        <v>15.2970585407784</v>
+      </c>
+      <c r="V79" s="8" t="n">
         <f aca="false">QUARTILE(V$4:V$72,1)</f>
-        <v>0.715783081894693</v>
-      </c>
-      <c r="W79" s="3" t="n">
+        <v>0.67803034574219</v>
+      </c>
+      <c r="W79" s="0" t="n">
         <f aca="false">QUARTILE(W$4:W$72,1)</f>
-        <v>7.22358729586626</v>
-      </c>
-      <c r="X79" s="5" t="n">
+        <v>8.7701485741559</v>
+      </c>
+      <c r="X79" s="8" t="n">
         <f aca="false">QUARTILE(X$4:X$72,1)</f>
-        <v>0.60034805205777</v>
-      </c>
-      <c r="Y79" s="3" t="n">
+        <v>0.607145052158763</v>
+      </c>
+      <c r="Y79" s="0" t="n">
         <f aca="false">QUARTILE(Y$4:Y$72,1)</f>
-        <v>10.975334750884</v>
+        <v>10.0249378105605</v>
+      </c>
+      <c r="Z79" s="8" t="n">
+        <f aca="false">QUARTILE(Z$4:Z$72,1)</f>
+        <v>0.914424557824389</v>
+      </c>
+      <c r="AA79" s="5" t="n">
+        <f aca="false">QUARTILE(AA$4:AA$72,1)</f>
+        <v>16.8491</v>
+      </c>
+      <c r="AB79" s="8" t="n">
+        <f aca="false">QUARTILE(AB$4:AB$72,1)</f>
+        <v>0.628709142943214</v>
+      </c>
+      <c r="AC79" s="0" t="n">
+        <f aca="false">QUARTILE(AC$4:AC$72,1)</f>
+        <v>48.8057373676497</v>
+      </c>
+      <c r="AD79" s="8" t="n">
+        <f aca="false">QUARTILE(AD$4:AD$72,1)</f>
+        <v>0.795169419927042</v>
+      </c>
+      <c r="AE79" s="0" t="n">
+        <f aca="false">QUARTILE(AE$4:AE$72,1)</f>
+        <v>7.1000875</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="B80" s="8" t="n">
         <f aca="false">QUARTILE(B$4:B$72,2)</f>
         <v>0.160210641749103</v>
       </c>
       <c r="C80" s="0" t="n">
         <f aca="false">QUARTILE(C$4:C$71,2)</f>
-        <v>101.601020700253</v>
+        <v>100.204762351723</v>
       </c>
       <c r="D80" s="0" t="n">
         <f aca="false">QUARTILE(D$4:D$71,2)</f>
-        <v>0.0222311594799808</v>
+        <v>0.00376141859215476</v>
       </c>
       <c r="E80" s="0" t="n">
         <f aca="false">QUARTILE(E$4:E$71,2)</f>
-        <v>69.4190175672344</v>
+        <v>107.902733978338</v>
       </c>
       <c r="F80" s="0" t="n">
         <f aca="false">QUARTILE(F$4:F$71,2)</f>
@@ -4990,7 +6470,7 @@
       </c>
       <c r="G80" s="0" t="n">
         <f aca="false">QUARTILE(G$4:G$71,2)</f>
-        <v>96.5577301761678</v>
+        <v>95.1197042962604</v>
       </c>
       <c r="H80" s="0" t="n">
         <f aca="false">QUARTILE(H$4:H$71,2)</f>
@@ -4998,23 +6478,23 @@
       </c>
       <c r="I80" s="0" t="n">
         <f aca="false">QUARTILE(I$4:I$71,2)</f>
-        <v>20.1493041580207</v>
+        <v>20.6274768806911</v>
       </c>
       <c r="J80" s="0" t="n">
         <f aca="false">QUARTILE(J$4:J$71,2)</f>
-        <v>0.803703068235224</v>
+        <v>0.803072250911399</v>
       </c>
       <c r="K80" s="0" t="n">
         <f aca="false">QUARTILE(K$4:K$71,2)</f>
-        <v>22.8254244210266</v>
+        <v>29.5296461204668</v>
       </c>
       <c r="L80" s="0" t="n">
         <f aca="false">QUARTILE(L$4:L$71,2)</f>
-        <v>0.806186588467503</v>
+        <v>0.809984056917883</v>
       </c>
       <c r="M80" s="0" t="n">
         <f aca="false">QUARTILE(M$4:M$71,2)</f>
-        <v>15.3778604539939</v>
+        <v>15.1324212950504</v>
       </c>
       <c r="N80" s="0" t="n">
         <f aca="false">QUARTILE(N$4:N$71,2)</f>
@@ -5022,23 +6502,23 @@
       </c>
       <c r="O80" s="0" t="n">
         <f aca="false">QUARTILE(O$4:O$71,2)</f>
-        <v>18.74624145153</v>
+        <v>19.1571729434207</v>
       </c>
       <c r="P80" s="0" t="n">
         <f aca="false">QUARTILE(P$4:P$71,2)</f>
-        <v>0.838959741236413</v>
+        <v>0.795067373040829</v>
       </c>
       <c r="Q80" s="0" t="n">
         <f aca="false">QUARTILE(Q$4:Q$71,2)</f>
-        <v>24.6779253585061</v>
+        <v>31.0805405358401</v>
       </c>
       <c r="R80" s="0" t="n">
         <f aca="false">QUARTILE(R$4:R$71,2)</f>
-        <v>0.807450935167551</v>
+        <v>0.820333080660782</v>
       </c>
       <c r="S80" s="0" t="n">
         <f aca="false">QUARTILE(S$4:S$71,2)</f>
-        <v>14.1763500472037</v>
+        <v>13.8007352543677</v>
       </c>
       <c r="T80" s="0" t="n">
         <f aca="false">QUARTILE(T$4:T$71,2)</f>
@@ -5046,52 +6526,76 @@
       </c>
       <c r="U80" s="0" t="n">
         <f aca="false">QUARTILE(U$4:U$71,2)</f>
-        <v>9.4339811320566</v>
+        <v>18.275584969056</v>
       </c>
       <c r="V80" s="0" t="n">
         <f aca="false">QUARTILE(V$4:V$71,2)</f>
-        <v>0.765299747708534</v>
+        <v>0.743503314284654</v>
       </c>
       <c r="W80" s="0" t="n">
         <f aca="false">QUARTILE(W$4:W$71,2)</f>
-        <v>8.93797188126917</v>
+        <v>11.6689926101627</v>
       </c>
       <c r="X80" s="0" t="n">
         <f aca="false">QUARTILE(X$4:X$71,2)</f>
-        <v>0.649834627063774</v>
+        <v>0.654994239964428</v>
       </c>
       <c r="Y80" s="0" t="n">
         <f aca="false">QUARTILE(Y$4:Y$71,2)</f>
-        <v>13.8155354629158</v>
+        <v>13.2460144287395</v>
+      </c>
+      <c r="Z80" s="0" t="n">
+        <f aca="false">QUARTILE(Z$4:Z$71,2)</f>
+        <v>0.925957</v>
+      </c>
+      <c r="AA80" s="0" t="n">
+        <f aca="false">QUARTILE(AA$4:AA$71,2)</f>
+        <v>27.1827559274119</v>
+      </c>
+      <c r="AB80" s="0" t="n">
+        <f aca="false">QUARTILE(AB$4:AB$71,2)</f>
+        <v>0.628709142943214</v>
+      </c>
+      <c r="AC80" s="0" t="n">
+        <f aca="false">QUARTILE(AC$4:AC$71,2)</f>
+        <v>48.8057373676497</v>
+      </c>
+      <c r="AD80" s="0" t="n">
+        <f aca="false">QUARTILE(AD$4:AD$71,2)</f>
+        <v>0.898216</v>
+      </c>
+      <c r="AE80" s="0" t="n">
+        <f aca="false">QUARTILE(AE$4:AE$71,2)</f>
+        <v>15.4587742934744</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="B81" s="8" t="n">
         <f aca="false">QUARTILE(B$4:B$72,3)</f>
         <v>0.356239703189662</v>
       </c>
       <c r="C81" s="0" t="n">
         <f aca="false">QUARTILE(C$4:C$71,3)</f>
-        <v>120.380221028394</v>
+        <v>117.588120828641</v>
       </c>
       <c r="D81" s="0" t="n">
         <f aca="false">QUARTILE(D$4:D$71,3)</f>
-        <v>0.212544122323749</v>
+        <v>0.201960194719177</v>
       </c>
       <c r="E81" s="0" t="n">
         <f aca="false">QUARTILE(E$4:E$71,3)</f>
-        <v>121.814412160776</v>
+        <v>128.903064354576</v>
       </c>
       <c r="F81" s="0" t="n">
         <f aca="false">QUARTILE(F$4:F$71,3)</f>
-        <v>0.0243749632962448</v>
+        <v>0.0252679212394386</v>
       </c>
       <c r="G81" s="0" t="n">
         <f aca="false">QUARTILE(G$4:G$71,3)</f>
-        <v>119.075404917121</v>
+        <v>116.229796438531</v>
       </c>
       <c r="H81" s="0" t="n">
         <f aca="false">QUARTILE(H$4:H$71,3)</f>
@@ -5099,11 +6603,11 @@
       </c>
       <c r="I81" s="0" t="n">
         <f aca="false">QUARTILE(I$4:I$71,3)</f>
-        <v>25.9028978115448</v>
+        <v>28.6604001417191</v>
       </c>
       <c r="J81" s="0" t="n">
         <f aca="false">QUARTILE(J$4:J$71,3)</f>
-        <v>0.869810927686305</v>
+        <v>0.808651845675269</v>
       </c>
       <c r="K81" s="0" t="n">
         <f aca="false">QUARTILE(K$4:K$71,3)</f>
@@ -5111,7 +6615,7 @@
       </c>
       <c r="L81" s="0" t="n">
         <f aca="false">QUARTILE(L$4:L$71,3)</f>
-        <v>0.854839360782997</v>
+        <v>0.861478263536948</v>
       </c>
       <c r="M81" s="0" t="n">
         <f aca="false">QUARTILE(M$4:M$71,3)</f>
@@ -5123,11 +6627,11 @@
       </c>
       <c r="O81" s="0" t="n">
         <f aca="false">QUARTILE(O$4:O$71,3)</f>
-        <v>22.7356229338242</v>
+        <v>22.2359335501582</v>
       </c>
       <c r="P81" s="0" t="n">
         <f aca="false">QUARTILE(P$4:P$71,3)</f>
-        <v>0.874533254430847</v>
+        <v>0.865749490016328</v>
       </c>
       <c r="Q81" s="0" t="n">
         <f aca="false">QUARTILE(Q$4:Q$71,3)</f>
@@ -5135,7 +6639,7 @@
       </c>
       <c r="R81" s="0" t="n">
         <f aca="false">QUARTILE(R$4:R$71,3)</f>
-        <v>0.889279440060217</v>
+        <v>0.892586522211143</v>
       </c>
       <c r="S81" s="0" t="n">
         <f aca="false">QUARTILE(S$4:S$71,3)</f>
@@ -5147,87 +6651,127 @@
       </c>
       <c r="U81" s="0" t="n">
         <f aca="false">QUARTILE(U$4:U$71,3)</f>
-        <v>12.061862178479</v>
+        <v>23.4251940289249</v>
       </c>
       <c r="V81" s="0" t="n">
         <f aca="false">QUARTILE(V$4:V$71,3)</f>
-        <v>0.810791002587252</v>
+        <v>0.766114115276342</v>
       </c>
       <c r="W81" s="0" t="n">
         <f aca="false">QUARTILE(W$4:W$71,3)</f>
-        <v>13.2629650600305</v>
+        <v>16.2382997036516</v>
       </c>
       <c r="X81" s="0" t="n">
         <f aca="false">QUARTILE(X$4:X$71,3)</f>
-        <v>0.751762125288533</v>
+        <v>0.767496137170965</v>
       </c>
       <c r="Y81" s="0" t="n">
         <f aca="false">QUARTILE(Y$4:Y$71,3)</f>
-        <v>18.5876156760516</v>
+        <v>18.5337382454703</v>
+      </c>
+      <c r="Z81" s="0" t="n">
+        <f aca="false">QUARTILE(Z$4:Z$71,3)</f>
+        <v>0.935338852343705</v>
+      </c>
+      <c r="AA81" s="0" t="n">
+        <f aca="false">QUARTILE(AA$4:AA$71,3)</f>
+        <v>32.3878</v>
+      </c>
+      <c r="AB81" s="0" t="n">
+        <f aca="false">QUARTILE(AB$4:AB$71,3)</f>
+        <v>0.628709142943214</v>
+      </c>
+      <c r="AC81" s="0" t="n">
+        <f aca="false">QUARTILE(AC$4:AC$71,3)</f>
+        <v>48.8057373676497</v>
+      </c>
+      <c r="AD81" s="0" t="n">
+        <f aca="false">QUARTILE(AD$4:AD$71,3)</f>
+        <v>0.94471825</v>
+      </c>
+      <c r="AE81" s="0" t="n">
+        <f aca="false">QUARTILE(AE$4:AE$71,3)</f>
+        <v>28.0745</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="N82" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="N82" s="8" t="n">
         <f aca="false">SUMPRODUCT(N4:N72 &gt; H4:H72)/COUNT(N4:N72)</f>
-        <v>0.840579710144927</v>
-      </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8" t="n">
         <f aca="false">SUMPRODUCT(P4:P72 &gt; J4:J72)/COUNT(P4:P72)</f>
-        <v>0.545454545454545</v>
-      </c>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8" t="n">
         <f aca="false">SUMPRODUCT(R4:R72 &gt; L4:L72)/COUNT(R4:R72)</f>
-        <v>0.631578947368421</v>
-      </c>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8" t="n">
         <f aca="false">SUMPRODUCT(T4:T72 &gt; H4:H72)/COUNT(T4:T72)</f>
-        <v>0.985507246376812</v>
-      </c>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" s="8"/>
+      <c r="V82" s="8" t="n">
         <f aca="false">SUMPRODUCT(V4:V72 &gt; J4:J72)/COUNT(V4:V72)</f>
-        <v>0.285714285714286</v>
-      </c>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" s="8"/>
+      <c r="X82" s="8" t="n">
         <f aca="false">SUMPRODUCT(X4:X72 &gt; L4:L72)/COUNT(X4:X72)</f>
-        <v>0.0545454545454545</v>
-      </c>
-      <c r="Y82" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="8"/>
+      <c r="Z82" s="8" t="n">
+        <f aca="false">SUMPRODUCT(Z4:Z72 &gt; N4:N72)/COUNT(Z4:Z72)</f>
+        <v>0.672131147540984</v>
+      </c>
+      <c r="AA82" s="8"/>
+      <c r="AB82" s="8" t="n">
+        <f aca="false">SUMPRODUCT(AB4:AB72 &gt; P4:P72)/COUNT(AB4:AB72)</f>
+        <v>1</v>
+      </c>
+      <c r="AC82" s="8"/>
+      <c r="AD82" s="8" t="n">
+        <f aca="false">SUMPRODUCT(AD4:AD72 &gt; R4:R72)/COUNT(AD4:AD72)</f>
+        <v>0.71875</v>
+      </c>
+      <c r="AE82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -5240,6 +6784,9 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
